--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="200">
   <si>
     <t>Name</t>
   </si>
@@ -492,13 +492,155 @@
   </si>
   <si>
     <t>http://mspxa.blob.core.windows.net/restaurant/%E4%B8%AD%E6%AD%A3%E5%93%81%E5%91%B3%E9%A6%99.jpg</t>
+  </si>
+  <si>
+    <t>(這是測試資料)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCTU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCKU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCKU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>咖食堂</t>
+  </si>
+  <si>
+    <t>光華商圈</t>
+  </si>
+  <si>
+    <t>飯麵</t>
+  </si>
+  <si>
+    <t>NTUT</t>
+  </si>
+  <si>
+    <t>光華紅豆餅</t>
+  </si>
+  <si>
+    <t>起士雞排</t>
+  </si>
+  <si>
+    <t>李記</t>
+  </si>
+  <si>
+    <t>麵</t>
+  </si>
+  <si>
+    <t>陳記燒臘</t>
+  </si>
+  <si>
+    <t>麥當勞那邊</t>
+  </si>
+  <si>
+    <t>飯</t>
+  </si>
+  <si>
+    <t>元味便當</t>
+  </si>
+  <si>
+    <t>沒地址</t>
+  </si>
+  <si>
+    <t>便當、飯</t>
+  </si>
+  <si>
+    <t>臭臉滷味</t>
+  </si>
+  <si>
+    <t>宿舍後面</t>
+  </si>
+  <si>
+    <t>滷味</t>
+  </si>
+  <si>
+    <t>鮮雞味</t>
+  </si>
+  <si>
+    <t>鹹酥雞</t>
+  </si>
+  <si>
+    <t>住吉</t>
+  </si>
+  <si>
+    <t>關東煮</t>
+  </si>
+  <si>
+    <t>禮面作</t>
+  </si>
+  <si>
+    <t>北科餐廳資料</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台南鱔魚麵</t>
+  </si>
+  <si>
+    <t>新竹市東區光復路二段298巷7弄15號</t>
+  </si>
+  <si>
+    <t>好吃好吃百吃不厭</t>
+  </si>
+  <si>
+    <t>NTHU</t>
+  </si>
+  <si>
+    <t>ＱＱ圓</t>
+  </si>
+  <si>
+    <t>清大正對面</t>
+  </si>
+  <si>
+    <t>口味特殊又好吃，兩碗70元~</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/pure816/1431268601-272714898.jpg</t>
+  </si>
+  <si>
+    <t>大眾食堂</t>
+  </si>
+  <si>
+    <t>清大西門摩斯旁邊</t>
+  </si>
+  <si>
+    <t>日式定食、生魚片</t>
+  </si>
+  <si>
+    <t>https://pic.gomaji.com/uploads/stores/599/19599/84647/noodle-13.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCHU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTUST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NTUST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/default.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -546,6 +688,32 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14.4"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -572,7 +740,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -581,6 +749,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -897,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -909,7 +1088,7 @@
     <col min="2" max="2" width="22.25" customWidth="1"/>
     <col min="3" max="3" width="20.375" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
     <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1671,6 +1850,464 @@
       </c>
       <c r="F38" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.75">
+      <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.75">
+      <c r="A40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.75">
+      <c r="A41" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.75">
+      <c r="A42" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.75">
+      <c r="A43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75">
+      <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.75">
+      <c r="A45" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75">
+      <c r="A46" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75">
+      <c r="A47" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18.75">
+      <c r="A48" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18.75">
+      <c r="A49" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="18.75">
+      <c r="A50" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18.75">
+      <c r="A51" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18.75">
+      <c r="A52" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18.75">
+      <c r="A53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18.75">
+      <c r="A54" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18.75">
+      <c r="A58" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="18.75">
+      <c r="A59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="18.75">
+      <c r="A60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="18.75">
+      <c r="A61" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -1703,8 +2340,19 @@
     <hyperlink ref="E26" r:id="rId25"/>
     <hyperlink ref="E27" r:id="rId26"/>
     <hyperlink ref="E28" r:id="rId27"/>
+    <hyperlink ref="E39" r:id="rId28"/>
+    <hyperlink ref="E40" r:id="rId29"/>
+    <hyperlink ref="E41" r:id="rId30"/>
+    <hyperlink ref="E42" r:id="rId31"/>
+    <hyperlink ref="E43" r:id="rId32"/>
+    <hyperlink ref="E44" r:id="rId33"/>
+    <hyperlink ref="E55" r:id="rId34"/>
+    <hyperlink ref="E58" r:id="rId35"/>
+    <hyperlink ref="E59" r:id="rId36"/>
+    <hyperlink ref="E60" r:id="rId37"/>
+    <hyperlink ref="E61" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="264">
   <si>
     <t>Name</t>
   </si>
@@ -510,10 +510,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>NCKU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>咖食堂</t>
   </si>
   <si>
@@ -634,6 +630,201 @@
   </si>
   <si>
     <t>http://mspxa.blob.core.windows.net/restaurant/default.jpg</t>
+  </si>
+  <si>
+    <t>拾分</t>
+  </si>
+  <si>
+    <t>701台南市東區大學路西段35號</t>
+  </si>
+  <si>
+    <t>座位不多、價位跟份量就是抵早、午兩餐</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/201411/cgm9d8744635e9682512946e7b4e5554f00934.jpg</t>
+  </si>
+  <si>
+    <t>NCKU</t>
+  </si>
+  <si>
+    <t>日喜蒸蛋飯</t>
+  </si>
+  <si>
+    <t>台南市育樂街238號</t>
+  </si>
+  <si>
+    <t>便宜又大碗，有飯有蛋有肉，飲食均衡</t>
+  </si>
+  <si>
+    <t>午餐、晚餐</t>
+  </si>
+  <si>
+    <t>http://img.foodieteller.com/20160817010516_16.jpg</t>
+  </si>
+  <si>
+    <t>一點刈包</t>
+  </si>
+  <si>
+    <t>台南市東區小東路156號</t>
+  </si>
+  <si>
+    <t>宵夜就是要吃小吃</t>
+  </si>
+  <si>
+    <t>宵夜</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/70319/542782/cgm8327526bc09785ee9e7b62fea8c53974598.jpg</t>
+  </si>
+  <si>
+    <t>小東路大水餃</t>
+  </si>
+  <si>
+    <t>台南市小東路與林森路交叉口人行道上(近卑南燒烤)</t>
+  </si>
+  <si>
+    <t>聽說是男生們晚下課或練球完後的好去處。</t>
+  </si>
+  <si>
+    <t>晚餐、宵夜</t>
+  </si>
+  <si>
+    <t>http://img.foodieteller.com/20160815000841_49.jpg</t>
+  </si>
+  <si>
+    <t>masa loft 瑪莎羅芙</t>
+  </si>
+  <si>
+    <t>台南市東區大學路西段53號3樓(成大光口對面7-11上面)</t>
+  </si>
+  <si>
+    <t>有低消、很適合喝咖啡喝果汁，用蘋果電腦裝裝文青、週五晚上會播放電影</t>
+  </si>
+  <si>
+    <t>早午餐、咖啡店</t>
+  </si>
+  <si>
+    <t>http://synapticism.com/x/taiwan-tainan-masa-loft-1-900x600.jpg</t>
+  </si>
+  <si>
+    <t>勝利早點</t>
+  </si>
+  <si>
+    <t>台灣台南市東區勝利路119號</t>
+  </si>
+  <si>
+    <t>從下午可以吃到晚上，再吃到宵夜，再吃到早餐，約練後撫慰空虛心靈、繼續交友把妹聯絡感情的好去處。（雖然妹不一定喜歡）</t>
+  </si>
+  <si>
+    <t>宵夜、早餐</t>
+  </si>
+  <si>
+    <t>http://b.share.photo.xuite.net/jianing0823/1bbfbc0/8846348/369549748_m.jpg</t>
+  </si>
+  <si>
+    <t>黑工號 嫩仙草</t>
+  </si>
+  <si>
+    <t>台灣台南市東區育樂街185號701</t>
+  </si>
+  <si>
+    <t>打卡折十元，老闆是文青，用蘋果電腦聽蛋堡</t>
+  </si>
+  <si>
+    <t>甜品</t>
+  </si>
+  <si>
+    <t>https://imgur.dcard.tw/51WragS.jpg</t>
+  </si>
+  <si>
+    <t>小碗和食</t>
+  </si>
+  <si>
+    <t>701台南市東區大學路18巷20號</t>
+  </si>
+  <si>
+    <t>餐點260~350以上，選擇不多，但真材實料，且白飯是用厲害的電鍋煮的，很好吃可續碗。</t>
+  </si>
+  <si>
+    <t>https://pgw.udn.com.tw/gw/photo.php?u=http://uc.udn.com.tw/photo/2016/05/28/1/2196797.jpg&amp;x=0&amp;y=0&amp;sw=0&amp;sh=0&amp;sl=W&amp;fw=1050&amp;exp=3600</t>
+  </si>
+  <si>
+    <t>港記燒臘</t>
+  </si>
+  <si>
+    <t>701台南市東區東安路97號</t>
+  </si>
+  <si>
+    <t>便宜又大碗的最佳代表，通同65。吃飯時間請早，否則大排長龍。</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/uchutw/1378518823-76928715.jpg</t>
+  </si>
+  <si>
+    <t>鮮果診所</t>
+  </si>
+  <si>
+    <t>704台南市北區長榮路四段68號</t>
+  </si>
+  <si>
+    <t>就是一個醫生開的果汁店，為注重健康...blah blah blah 這故事相信大家都聽過。阿因為健康所以小貴齁。</t>
+  </si>
+  <si>
+    <t>沙拉、冰沙與果汁吧</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/vbphone08/1419764781-1726607618_n.jpg</t>
+  </si>
+  <si>
+    <t>艸疏田木</t>
+  </si>
+  <si>
+    <t>台南市東區育樂街193之2號</t>
+  </si>
+  <si>
+    <t>每天都有不同蔬果，可選擇大中小、食材、醬汁。</t>
+  </si>
+  <si>
+    <t>蔬果沙拉</t>
+  </si>
+  <si>
+    <t>http://www.17life.com/Images/imagesU/d7e22d16-3ad8-47ba-93c2-027c9cd6215a/06.JPG</t>
+  </si>
+  <si>
+    <t>大醬川麵館</t>
+  </si>
+  <si>
+    <t>台南市東區育樂街35號-28</t>
+  </si>
+  <si>
+    <t>價格合理又好吃，整體環境乾淨、衛生</t>
+  </si>
+  <si>
+    <t>http://boylondon.pixnet.net/album/photo/280201807</t>
+  </si>
+  <si>
+    <t>樂品屋</t>
+  </si>
+  <si>
+    <t>台南市東區育樂街131號</t>
+  </si>
+  <si>
+    <t>價格便宜，份量足夠，但座位不多</t>
+  </si>
+  <si>
+    <t>http://natsuki2005.pixnet.net/album/photo/171050229</t>
+  </si>
+  <si>
+    <t>韓朝韓式料理</t>
+  </si>
+  <si>
+    <t>台南市東區東寧路25號</t>
+  </si>
+  <si>
+    <t>餐點好吃，小菜吃到飽</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/0/7/9/cgm62986c6d4a84cc52a1df5fd840d058b6340.jpg</t>
   </si>
 </sst>
 </file>
@@ -1076,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F44" sqref="A43:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1933,301 +2124,301 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="18.75">
-      <c r="A43" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>159</v>
+      <c r="A43" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18.75">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>160</v>
+      <c r="A44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18.75">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>162</v>
-      </c>
       <c r="C45" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D45" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="E45" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>162</v>
+      <c r="A46" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>161</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>19</v>
+        <v>182</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>164</v>
+        <v>198</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18.75">
       <c r="A47" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E47" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18.75">
       <c r="A48" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="E48" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18.75">
       <c r="A49" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="E49" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="18.75">
       <c r="A50" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18.75">
       <c r="A51" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="C51" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E51" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18.75">
       <c r="A52" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="C52" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="18.75">
-      <c r="A53" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="E53" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="18.75">
-      <c r="A54" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>164</v>
+      <c r="B53" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="8" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="E55" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18.75">
+      <c r="A56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18.75">
+      <c r="A57" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18.75">
@@ -2247,7 +2438,7 @@
         <v>35</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="18.75">
@@ -2267,47 +2458,287 @@
         <v>39</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="18.75">
-      <c r="A60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F60" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="18.75">
-      <c r="A61" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>198</v>
+    <row r="60" spans="1:6">
+      <c r="A60" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -2344,15 +2775,13 @@
     <hyperlink ref="E40" r:id="rId29"/>
     <hyperlink ref="E41" r:id="rId30"/>
     <hyperlink ref="E42" r:id="rId31"/>
-    <hyperlink ref="E43" r:id="rId32"/>
-    <hyperlink ref="E44" r:id="rId33"/>
-    <hyperlink ref="E55" r:id="rId34"/>
+    <hyperlink ref="E53" r:id="rId32"/>
+    <hyperlink ref="E56" r:id="rId33"/>
+    <hyperlink ref="E57" r:id="rId34"/>
     <hyperlink ref="E58" r:id="rId35"/>
     <hyperlink ref="E59" r:id="rId36"/>
-    <hyperlink ref="E60" r:id="rId37"/>
-    <hyperlink ref="E61" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId39"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="303">
   <si>
     <t>Name</t>
   </si>
@@ -513,9 +513,6 @@
     <t>咖食堂</t>
   </si>
   <si>
-    <t>光華商圈</t>
-  </si>
-  <si>
     <t>飯麵</t>
   </si>
   <si>
@@ -537,27 +534,18 @@
     <t>陳記燒臘</t>
   </si>
   <si>
-    <t>麥當勞那邊</t>
-  </si>
-  <si>
     <t>飯</t>
   </si>
   <si>
     <t>元味便當</t>
   </si>
   <si>
-    <t>沒地址</t>
-  </si>
-  <si>
     <t>便當、飯</t>
   </si>
   <si>
     <t>臭臉滷味</t>
   </si>
   <si>
-    <t>宿舍後面</t>
-  </si>
-  <si>
     <t>滷味</t>
   </si>
   <si>
@@ -574,10 +562,6 @@
   </si>
   <si>
     <t>禮面作</t>
-  </si>
-  <si>
-    <t>北科餐廳資料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>台南鱔魚麵</t>
@@ -621,217 +605,347 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/default.jpg</t>
+  </si>
+  <si>
+    <t>拾分</t>
+  </si>
+  <si>
+    <t>701台南市東區大學路西段35號</t>
+  </si>
+  <si>
+    <t>座位不多、價位跟份量就是抵早、午兩餐</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/201411/cgm9d8744635e9682512946e7b4e5554f00934.jpg</t>
+  </si>
+  <si>
+    <t>NCKU</t>
+  </si>
+  <si>
+    <t>日喜蒸蛋飯</t>
+  </si>
+  <si>
+    <t>台南市育樂街238號</t>
+  </si>
+  <si>
+    <t>便宜又大碗，有飯有蛋有肉，飲食均衡</t>
+  </si>
+  <si>
+    <t>午餐、晚餐</t>
+  </si>
+  <si>
+    <t>http://img.foodieteller.com/20160817010516_16.jpg</t>
+  </si>
+  <si>
+    <t>一點刈包</t>
+  </si>
+  <si>
+    <t>台南市東區小東路156號</t>
+  </si>
+  <si>
+    <t>宵夜就是要吃小吃</t>
+  </si>
+  <si>
+    <t>宵夜</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/70319/542782/cgm8327526bc09785ee9e7b62fea8c53974598.jpg</t>
+  </si>
+  <si>
+    <t>小東路大水餃</t>
+  </si>
+  <si>
+    <t>台南市小東路與林森路交叉口人行道上(近卑南燒烤)</t>
+  </si>
+  <si>
+    <t>聽說是男生們晚下課或練球完後的好去處。</t>
+  </si>
+  <si>
+    <t>晚餐、宵夜</t>
+  </si>
+  <si>
+    <t>http://img.foodieteller.com/20160815000841_49.jpg</t>
+  </si>
+  <si>
+    <t>masa loft 瑪莎羅芙</t>
+  </si>
+  <si>
+    <t>台南市東區大學路西段53號3樓(成大光口對面7-11上面)</t>
+  </si>
+  <si>
+    <t>有低消、很適合喝咖啡喝果汁，用蘋果電腦裝裝文青、週五晚上會播放電影</t>
+  </si>
+  <si>
+    <t>早午餐、咖啡店</t>
+  </si>
+  <si>
+    <t>http://synapticism.com/x/taiwan-tainan-masa-loft-1-900x600.jpg</t>
+  </si>
+  <si>
+    <t>勝利早點</t>
+  </si>
+  <si>
+    <t>台灣台南市東區勝利路119號</t>
+  </si>
+  <si>
+    <t>從下午可以吃到晚上，再吃到宵夜，再吃到早餐，約練後撫慰空虛心靈、繼續交友把妹聯絡感情的好去處。（雖然妹不一定喜歡）</t>
+  </si>
+  <si>
+    <t>宵夜、早餐</t>
+  </si>
+  <si>
+    <t>http://b.share.photo.xuite.net/jianing0823/1bbfbc0/8846348/369549748_m.jpg</t>
+  </si>
+  <si>
+    <t>黑工號 嫩仙草</t>
+  </si>
+  <si>
+    <t>台灣台南市東區育樂街185號701</t>
+  </si>
+  <si>
+    <t>打卡折十元，老闆是文青，用蘋果電腦聽蛋堡</t>
+  </si>
+  <si>
+    <t>甜品</t>
+  </si>
+  <si>
+    <t>https://imgur.dcard.tw/51WragS.jpg</t>
+  </si>
+  <si>
+    <t>小碗和食</t>
+  </si>
+  <si>
+    <t>701台南市東區大學路18巷20號</t>
+  </si>
+  <si>
+    <t>餐點260~350以上，選擇不多，但真材實料，且白飯是用厲害的電鍋煮的，很好吃可續碗。</t>
+  </si>
+  <si>
+    <t>https://pgw.udn.com.tw/gw/photo.php?u=http://uc.udn.com.tw/photo/2016/05/28/1/2196797.jpg&amp;x=0&amp;y=0&amp;sw=0&amp;sh=0&amp;sl=W&amp;fw=1050&amp;exp=3600</t>
+  </si>
+  <si>
+    <t>港記燒臘</t>
+  </si>
+  <si>
+    <t>701台南市東區東安路97號</t>
+  </si>
+  <si>
+    <t>便宜又大碗的最佳代表，通同65。吃飯時間請早，否則大排長龍。</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/uchutw/1378518823-76928715.jpg</t>
+  </si>
+  <si>
+    <t>鮮果診所</t>
+  </si>
+  <si>
+    <t>704台南市北區長榮路四段68號</t>
+  </si>
+  <si>
+    <t>就是一個醫生開的果汁店，為注重健康...blah blah blah 這故事相信大家都聽過。阿因為健康所以小貴齁。</t>
+  </si>
+  <si>
+    <t>沙拉、冰沙與果汁吧</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/vbphone08/1419764781-1726607618_n.jpg</t>
+  </si>
+  <si>
+    <t>艸疏田木</t>
+  </si>
+  <si>
+    <t>台南市東區育樂街193之2號</t>
+  </si>
+  <si>
+    <t>每天都有不同蔬果，可選擇大中小、食材、醬汁。</t>
+  </si>
+  <si>
+    <t>蔬果沙拉</t>
+  </si>
+  <si>
+    <t>http://www.17life.com/Images/imagesU/d7e22d16-3ad8-47ba-93c2-027c9cd6215a/06.JPG</t>
+  </si>
+  <si>
+    <t>大醬川麵館</t>
+  </si>
+  <si>
+    <t>台南市東區育樂街35號-28</t>
+  </si>
+  <si>
+    <t>價格合理又好吃，整體環境乾淨、衛生</t>
+  </si>
+  <si>
+    <t>http://boylondon.pixnet.net/album/photo/280201807</t>
+  </si>
+  <si>
+    <t>樂品屋</t>
+  </si>
+  <si>
+    <t>台南市東區育樂街131號</t>
+  </si>
+  <si>
+    <t>價格便宜，份量足夠，但座位不多</t>
+  </si>
+  <si>
+    <t>http://natsuki2005.pixnet.net/album/photo/171050229</t>
+  </si>
+  <si>
+    <t>韓朝韓式料理</t>
+  </si>
+  <si>
+    <t>台南市東區東寧路25號</t>
+  </si>
+  <si>
+    <t>餐點好吃，小菜吃到飽</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/0/7/9/cgm62986c6d4a84cc52a1df5fd840d058b6340.jpg</t>
+  </si>
+  <si>
+    <t>100台北市中正區八德路一段82巷9弄13號</t>
+  </si>
+  <si>
+    <t>綠咖哩好吃到升天</t>
+  </si>
+  <si>
+    <t>100台北市中正區八德路一段82巷</t>
+  </si>
+  <si>
+    <t>放學來一包，絕對沒問題</t>
+  </si>
+  <si>
+    <t>100台北市中正區新生南路一段12巷</t>
+  </si>
+  <si>
+    <t>挑戰起士拉到最長，可以免費吃哦！</t>
+  </si>
+  <si>
+    <t>Linyi Street Lane 3, Taipei, Taiwan 100</t>
+  </si>
+  <si>
+    <t>羹麵有媽媽的味道</t>
+  </si>
+  <si>
+    <t>台北市中正區濟南路二段62巷3號</t>
+  </si>
+  <si>
+    <t>料美實在</t>
+  </si>
+  <si>
+    <t>市民大道三段150巷18弄</t>
+  </si>
+  <si>
+    <t>幾乎每一樣都好吃，神之便當店，尤其是土魠魚飯</t>
+  </si>
+  <si>
+    <t>106台北市大安區安東街50號</t>
+  </si>
+  <si>
+    <t>住宿舍必吃，排隊美食、宵夜，俗稱臭臉滷味的每位滷味店</t>
+  </si>
+  <si>
+    <t>台北市安東街45號之11</t>
+  </si>
+  <si>
+    <t>醬汁特別，炸雞排鎖水不乾澀</t>
+  </si>
+  <si>
+    <t>106台北市大安區安東街45-1號</t>
+  </si>
+  <si>
+    <t>宿舍三大店之一，湯特別美味好喝，醬汁也有別於一般關東煮醬，清爽不油膩</t>
+  </si>
+  <si>
+    <t>中正區濟南路二段48巷3號</t>
+  </si>
+  <si>
+    <t>將台式煮麵融入其他特別的食材，例如豆漿麵，清爽特別不油膩。</t>
+  </si>
+  <si>
+    <t>http://img.misshuan.tw/pixnet/8e97f193b8137ad0b887e1a2e5532396.jpg</t>
+  </si>
+  <si>
+    <t>http://farm8.staticflickr.com/7347/11405751035_285c3ac637_o.jpg</t>
+  </si>
+  <si>
+    <t>http://c.share.photo.xuite.net/pmlovestory/1c2fd19/18974094/1024640651_l.jpg</t>
+  </si>
+  <si>
+    <t>https://scontent-tpe1-1.xx.fbcdn.net/v/t1.0-9/1959424_899674273395272_7523767819486015064_n.jpg?oh=88901bf7329d7af51c8e470c7fd6c5b9&amp;oe=58CDC101</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/31.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/32.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/33.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/34.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/35.jpg</t>
+  </si>
+  <si>
+    <t>https://scontent-tpe1-1.xx.fbcdn.net/v/t1.0-9/13442139_1097231880335717_5450540044472393955_n.jpg?oh=ac12ba83f1e887fdc1202a8f4140b9a2&amp;oe=58D29130</t>
+  </si>
+  <si>
+    <t>藝素家</t>
+  </si>
+  <si>
+    <t>台科三餐</t>
+  </si>
+  <si>
+    <t>50元吃好飽，無負擔素食，男女老少都超愛</t>
+  </si>
+  <si>
+    <t>素食</t>
+  </si>
+  <si>
+    <t>http://lh5.ggpht.com/_o9h1grcT4Ok/SUTsgdKnhhI/AAAAAAAAA3g/kAWEcrYQKms/s400/CIMG1856.JPG</t>
+  </si>
+  <si>
     <t>NTUST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NTUST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://mspxa.blob.core.windows.net/restaurant/default.jpg</t>
-  </si>
-  <si>
-    <t>拾分</t>
-  </si>
-  <si>
-    <t>701台南市東區大學路西段35號</t>
-  </si>
-  <si>
-    <t>座位不多、價位跟份量就是抵早、午兩餐</t>
-  </si>
-  <si>
-    <t>http://iphoto.ipeen.com.tw/photo/comment/201411/cgm9d8744635e9682512946e7b4e5554f00934.jpg</t>
-  </si>
-  <si>
-    <t>NCKU</t>
-  </si>
-  <si>
-    <t>日喜蒸蛋飯</t>
-  </si>
-  <si>
-    <t>台南市育樂街238號</t>
-  </si>
-  <si>
-    <t>便宜又大碗，有飯有蛋有肉，飲食均衡</t>
-  </si>
-  <si>
-    <t>午餐、晚餐</t>
-  </si>
-  <si>
-    <t>http://img.foodieteller.com/20160817010516_16.jpg</t>
-  </si>
-  <si>
-    <t>一點刈包</t>
-  </si>
-  <si>
-    <t>台南市東區小東路156號</t>
-  </si>
-  <si>
-    <t>宵夜就是要吃小吃</t>
-  </si>
-  <si>
-    <t>宵夜</t>
-  </si>
-  <si>
-    <t>http://iphoto.ipeen.com.tw/photo/comment/70319/542782/cgm8327526bc09785ee9e7b62fea8c53974598.jpg</t>
-  </si>
-  <si>
-    <t>小東路大水餃</t>
-  </si>
-  <si>
-    <t>台南市小東路與林森路交叉口人行道上(近卑南燒烤)</t>
-  </si>
-  <si>
-    <t>聽說是男生們晚下課或練球完後的好去處。</t>
-  </si>
-  <si>
-    <t>晚餐、宵夜</t>
-  </si>
-  <si>
-    <t>http://img.foodieteller.com/20160815000841_49.jpg</t>
-  </si>
-  <si>
-    <t>masa loft 瑪莎羅芙</t>
-  </si>
-  <si>
-    <t>台南市東區大學路西段53號3樓(成大光口對面7-11上面)</t>
-  </si>
-  <si>
-    <t>有低消、很適合喝咖啡喝果汁，用蘋果電腦裝裝文青、週五晚上會播放電影</t>
-  </si>
-  <si>
-    <t>早午餐、咖啡店</t>
-  </si>
-  <si>
-    <t>http://synapticism.com/x/taiwan-tainan-masa-loft-1-900x600.jpg</t>
-  </si>
-  <si>
-    <t>勝利早點</t>
-  </si>
-  <si>
-    <t>台灣台南市東區勝利路119號</t>
-  </si>
-  <si>
-    <t>從下午可以吃到晚上，再吃到宵夜，再吃到早餐，約練後撫慰空虛心靈、繼續交友把妹聯絡感情的好去處。（雖然妹不一定喜歡）</t>
-  </si>
-  <si>
-    <t>宵夜、早餐</t>
-  </si>
-  <si>
-    <t>http://b.share.photo.xuite.net/jianing0823/1bbfbc0/8846348/369549748_m.jpg</t>
-  </si>
-  <si>
-    <t>黑工號 嫩仙草</t>
-  </si>
-  <si>
-    <t>台灣台南市東區育樂街185號701</t>
-  </si>
-  <si>
-    <t>打卡折十元，老闆是文青，用蘋果電腦聽蛋堡</t>
-  </si>
-  <si>
-    <t>甜品</t>
-  </si>
-  <si>
-    <t>https://imgur.dcard.tw/51WragS.jpg</t>
-  </si>
-  <si>
-    <t>小碗和食</t>
-  </si>
-  <si>
-    <t>701台南市東區大學路18巷20號</t>
-  </si>
-  <si>
-    <t>餐點260~350以上，選擇不多，但真材實料，且白飯是用厲害的電鍋煮的，很好吃可續碗。</t>
-  </si>
-  <si>
-    <t>https://pgw.udn.com.tw/gw/photo.php?u=http://uc.udn.com.tw/photo/2016/05/28/1/2196797.jpg&amp;x=0&amp;y=0&amp;sw=0&amp;sh=0&amp;sl=W&amp;fw=1050&amp;exp=3600</t>
-  </si>
-  <si>
-    <t>港記燒臘</t>
-  </si>
-  <si>
-    <t>701台南市東區東安路97號</t>
-  </si>
-  <si>
-    <t>便宜又大碗的最佳代表，通同65。吃飯時間請早，否則大排長龍。</t>
-  </si>
-  <si>
-    <t>http://pic.pimg.tw/uchutw/1378518823-76928715.jpg</t>
-  </si>
-  <si>
-    <t>鮮果診所</t>
-  </si>
-  <si>
-    <t>704台南市北區長榮路四段68號</t>
-  </si>
-  <si>
-    <t>就是一個醫生開的果汁店，為注重健康...blah blah blah 這故事相信大家都聽過。阿因為健康所以小貴齁。</t>
-  </si>
-  <si>
-    <t>沙拉、冰沙與果汁吧</t>
-  </si>
-  <si>
-    <t>http://pic.pimg.tw/vbphone08/1419764781-1726607618_n.jpg</t>
-  </si>
-  <si>
-    <t>艸疏田木</t>
-  </si>
-  <si>
-    <t>台南市東區育樂街193之2號</t>
-  </si>
-  <si>
-    <t>每天都有不同蔬果，可選擇大中小、食材、醬汁。</t>
-  </si>
-  <si>
-    <t>蔬果沙拉</t>
-  </si>
-  <si>
-    <t>http://www.17life.com/Images/imagesU/d7e22d16-3ad8-47ba-93c2-027c9cd6215a/06.JPG</t>
-  </si>
-  <si>
-    <t>大醬川麵館</t>
-  </si>
-  <si>
-    <t>台南市東區育樂街35號-28</t>
-  </si>
-  <si>
-    <t>價格合理又好吃，整體環境乾淨、衛生</t>
-  </si>
-  <si>
-    <t>http://boylondon.pixnet.net/album/photo/280201807</t>
-  </si>
-  <si>
-    <t>樂品屋</t>
-  </si>
-  <si>
-    <t>台南市東區育樂街131號</t>
-  </si>
-  <si>
-    <t>價格便宜，份量足夠，但座位不多</t>
-  </si>
-  <si>
-    <t>http://natsuki2005.pixnet.net/album/photo/171050229</t>
-  </si>
-  <si>
-    <t>韓朝韓式料理</t>
-  </si>
-  <si>
-    <t>台南市東區東寧路25號</t>
-  </si>
-  <si>
-    <t>餐點好吃，小菜吃到飽</t>
-  </si>
-  <si>
-    <t>http://iphoto.ipeen.com.tw/photo/comment/0/7/9/cgm62986c6d4a84cc52a1df5fd840d058b6340.jpg</t>
+  </si>
+  <si>
+    <t>台大小小福</t>
+  </si>
+  <si>
+    <t>台大舟山路</t>
+  </si>
+  <si>
+    <t>台大來台科，台科也要去台大，一個反攻(誤)多元的概念</t>
+  </si>
+  <si>
+    <t>麵飯小吃</t>
+  </si>
+  <si>
+    <t>https://c7.staticflickr.com/9/8042/29492525310_86f7f7b467_n.jpg</t>
+  </si>
+  <si>
+    <t>韓風小舖</t>
+  </si>
+  <si>
+    <t>台科一餐</t>
+  </si>
+  <si>
+    <t>分量多，記得要說外帶內用</t>
+  </si>
+  <si>
+    <t>韓式正餐</t>
+  </si>
+  <si>
+    <t>http://3.share.photo.xuite.net/yoimg/13d7e88/4954637/188996987_m.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -880,25 +994,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14.4"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微軟正黑體"/>
@@ -931,7 +1026,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,12 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
@@ -1267,10 +1357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F44" sqref="A43:F44"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2123,622 +2213,642 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.75">
+    <row r="43" spans="1:6">
       <c r="A43" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.75">
+      <c r="A46" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.75">
+      <c r="A47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B62" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="E62" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F62" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="E43" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F43" s="5" t="s">
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="18.75">
-      <c r="A44" s="5" t="s">
+      <c r="B63" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="B64" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E44" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="18.75">
-      <c r="A45" s="7" t="s">
+      <c r="E64" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B45" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="7" t="s">
+      <c r="B65" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D46" s="7" t="s">
+      <c r="E65" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75">
-      <c r="A47" s="7" t="s">
+      <c r="B66" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="E66" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D47" s="7" t="s">
+      <c r="B67" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="E47" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="18.75">
-      <c r="A48" s="7" t="s">
+      <c r="E67" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B68" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="E68" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="18.75">
-      <c r="A49" s="7" t="s">
+      <c r="B69" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="E69" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C49" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D49" s="7" t="s">
+      <c r="B70" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="E49" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="18.75">
-      <c r="A50" s="7" t="s">
+      <c r="E70" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B50" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="18.75">
-      <c r="A51" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="18.75">
-      <c r="A52" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E53" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="18.75">
-      <c r="A56" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="18.75">
-      <c r="A57" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="18.75">
-      <c r="A58" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="18.75">
-      <c r="A59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E62" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="E70" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>255</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>203</v>
+      <c r="B71" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>203</v>
+      <c r="A72" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>203</v>
+      <c r="A73" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2775,13 +2885,11 @@
     <hyperlink ref="E40" r:id="rId29"/>
     <hyperlink ref="E41" r:id="rId30"/>
     <hyperlink ref="E42" r:id="rId31"/>
-    <hyperlink ref="E53" r:id="rId32"/>
-    <hyperlink ref="E56" r:id="rId33"/>
-    <hyperlink ref="E57" r:id="rId34"/>
-    <hyperlink ref="E58" r:id="rId35"/>
-    <hyperlink ref="E59" r:id="rId36"/>
+    <hyperlink ref="E43" r:id="rId32"/>
+    <hyperlink ref="E46" r:id="rId33"/>
+    <hyperlink ref="E47" r:id="rId34"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Goofy\OneDrive\MSP\WS\餐廳資料\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repo\XamarinBasicDemo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="329">
   <si>
     <t>Name</t>
   </si>
@@ -597,17 +597,10 @@
     <t>日式定食、生魚片</t>
   </si>
   <si>
-    <t>https://pic.gomaji.com/uploads/stores/599/19599/84647/noodle-13.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>NCHU</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>http://mspxa.blob.core.windows.net/restaurant/default.jpg</t>
-  </si>
-  <si>
     <t>拾分</t>
   </si>
   <si>
@@ -939,6 +932,90 @@
   </si>
   <si>
     <t>http://3.share.photo.xuite.net/yoimg/13d7e88/4954637/188996987_m.jpg</t>
+  </si>
+  <si>
+    <t>https://pic.gomaji.com/uploads/stores/599/19599/84647/noodle-13.jpg</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/americangod/1380906253-454771206_n.jpg</t>
+  </si>
+  <si>
+    <t>麥當當</t>
+  </si>
+  <si>
+    <t>清大小吃部</t>
+  </si>
+  <si>
+    <t>美式速食</t>
+  </si>
+  <si>
+    <t>早中午晚宵夜</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/sport0472001/normal_1201883561.jpg</t>
+  </si>
+  <si>
+    <t>築地鮮魚</t>
+  </si>
+  <si>
+    <t>300新竹市東區金山十五街5號</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/ivyblueling/1372171734-863783937.jpg</t>
+  </si>
+  <si>
+    <t>江之戶</t>
+  </si>
+  <si>
+    <t>清大宵夜街</t>
+  </si>
+  <si>
+    <t>https://farm9.staticflickr.com/8813/17156624255_3917a46737_b.jpg</t>
+  </si>
+  <si>
+    <t>蘇格貓底</t>
+  </si>
+  <si>
+    <t>清大綜二旁邊</t>
+  </si>
+  <si>
+    <t>燈光美氣氛佳好吃又好聊的二手書餐廳，還有可愛的貓咪</t>
+  </si>
+  <si>
+    <t>午餐、下午茶、晚餐</t>
+  </si>
+  <si>
+    <t>http://b.blog.xuite.net/b/5/8/7/18428208/blog_953367/txt/24812140/0.jpg</t>
+  </si>
+  <si>
+    <t>榮茂滷肉飯</t>
+  </si>
+  <si>
+    <t>宵夜街近機車塔</t>
+  </si>
+  <si>
+    <t>魯肉飯bj4</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/501784/803834/cm20150126___b7d627c5fa4299ee17bd7736ccbf57af288.jpg</t>
+  </si>
+  <si>
+    <t>白鬍子</t>
+  </si>
+  <si>
+    <t>牛排機排豬排鐵板麵還有烤麵包和湯和飲料無限量</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/8/7610/27547336216_6ae6640f7c_o.jpg</t>
+  </si>
+  <si>
+    <t>松原</t>
+  </si>
+  <si>
+    <t>鐵板燒</t>
+  </si>
+  <si>
+    <t>https://pic.pimg.tw/timmyvong/1433329254-2302640703.jpg</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1103,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1037,9 +1114,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1357,10 +1431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F74"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:XFD49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2213,399 +2287,401 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D43" s="5" t="s">
+    <row r="43" spans="1:6" ht="18.75">
+      <c r="A43" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.75">
+      <c r="A44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" ht="18.75">
-      <c r="A46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="18.75">
-      <c r="A47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>190</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>200</v>
+        <v>241</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>243</v>
+        <v>198</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>245</v>
+        <v>160</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>200</v>
+        <v>161</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
-        <v>249</v>
+        <v>163</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>256</v>
+        <v>277</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>162</v>
@@ -2613,19 +2689,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>162</v>
@@ -2633,19 +2709,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>162</v>
@@ -2653,19 +2729,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>162</v>
@@ -2673,19 +2749,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>162</v>
@@ -2693,19 +2769,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>162</v>
@@ -2713,19 +2789,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>162</v>
@@ -2733,122 +2809,260 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>173</v>
+        <v>285</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>174</v>
+        <v>288</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>176</v>
+        <v>294</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>162</v>
+        <v>290</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="5" t="s">
-        <v>287</v>
+        <v>178</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>288</v>
+        <v>179</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>289</v>
+        <v>180</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>290</v>
+        <v>13</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>296</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>297</v>
+        <v>185</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>292</v>
+        <v>181</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>299</v>
+        <v>187</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>300</v>
+        <v>188</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>301</v>
+        <v>13</v>
       </c>
       <c r="E74" s="5" t="s">
         <v>302</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>292</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2886,10 +3100,9 @@
     <hyperlink ref="E41" r:id="rId30"/>
     <hyperlink ref="E42" r:id="rId31"/>
     <hyperlink ref="E43" r:id="rId32"/>
-    <hyperlink ref="E46" r:id="rId33"/>
-    <hyperlink ref="E47" r:id="rId34"/>
+    <hyperlink ref="E44" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="371">
   <si>
     <t>Name</t>
   </si>
@@ -597,425 +597,550 @@
     <t>日式定食、生魚片</t>
   </si>
   <si>
+    <t>拾分</t>
+  </si>
+  <si>
+    <t>701台南市東區大學路西段35號</t>
+  </si>
+  <si>
+    <t>座位不多、價位跟份量就是抵早、午兩餐</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/201411/cgm9d8744635e9682512946e7b4e5554f00934.jpg</t>
+  </si>
+  <si>
+    <t>NCKU</t>
+  </si>
+  <si>
+    <t>日喜蒸蛋飯</t>
+  </si>
+  <si>
+    <t>台南市育樂街238號</t>
+  </si>
+  <si>
+    <t>便宜又大碗，有飯有蛋有肉，飲食均衡</t>
+  </si>
+  <si>
+    <t>午餐、晚餐</t>
+  </si>
+  <si>
+    <t>http://img.foodieteller.com/20160817010516_16.jpg</t>
+  </si>
+  <si>
+    <t>一點刈包</t>
+  </si>
+  <si>
+    <t>台南市東區小東路156號</t>
+  </si>
+  <si>
+    <t>宵夜就是要吃小吃</t>
+  </si>
+  <si>
+    <t>宵夜</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/70319/542782/cgm8327526bc09785ee9e7b62fea8c53974598.jpg</t>
+  </si>
+  <si>
+    <t>小東路大水餃</t>
+  </si>
+  <si>
+    <t>台南市小東路與林森路交叉口人行道上(近卑南燒烤)</t>
+  </si>
+  <si>
+    <t>聽說是男生們晚下課或練球完後的好去處。</t>
+  </si>
+  <si>
+    <t>晚餐、宵夜</t>
+  </si>
+  <si>
+    <t>http://img.foodieteller.com/20160815000841_49.jpg</t>
+  </si>
+  <si>
+    <t>masa loft 瑪莎羅芙</t>
+  </si>
+  <si>
+    <t>台南市東區大學路西段53號3樓(成大光口對面7-11上面)</t>
+  </si>
+  <si>
+    <t>有低消、很適合喝咖啡喝果汁，用蘋果電腦裝裝文青、週五晚上會播放電影</t>
+  </si>
+  <si>
+    <t>早午餐、咖啡店</t>
+  </si>
+  <si>
+    <t>http://synapticism.com/x/taiwan-tainan-masa-loft-1-900x600.jpg</t>
+  </si>
+  <si>
+    <t>勝利早點</t>
+  </si>
+  <si>
+    <t>台灣台南市東區勝利路119號</t>
+  </si>
+  <si>
+    <t>從下午可以吃到晚上，再吃到宵夜，再吃到早餐，約練後撫慰空虛心靈、繼續交友把妹聯絡感情的好去處。（雖然妹不一定喜歡）</t>
+  </si>
+  <si>
+    <t>宵夜、早餐</t>
+  </si>
+  <si>
+    <t>http://b.share.photo.xuite.net/jianing0823/1bbfbc0/8846348/369549748_m.jpg</t>
+  </si>
+  <si>
+    <t>黑工號 嫩仙草</t>
+  </si>
+  <si>
+    <t>台灣台南市東區育樂街185號701</t>
+  </si>
+  <si>
+    <t>打卡折十元，老闆是文青，用蘋果電腦聽蛋堡</t>
+  </si>
+  <si>
+    <t>甜品</t>
+  </si>
+  <si>
+    <t>https://imgur.dcard.tw/51WragS.jpg</t>
+  </si>
+  <si>
+    <t>小碗和食</t>
+  </si>
+  <si>
+    <t>701台南市東區大學路18巷20號</t>
+  </si>
+  <si>
+    <t>餐點260~350以上，選擇不多，但真材實料，且白飯是用厲害的電鍋煮的，很好吃可續碗。</t>
+  </si>
+  <si>
+    <t>https://pgw.udn.com.tw/gw/photo.php?u=http://uc.udn.com.tw/photo/2016/05/28/1/2196797.jpg&amp;x=0&amp;y=0&amp;sw=0&amp;sh=0&amp;sl=W&amp;fw=1050&amp;exp=3600</t>
+  </si>
+  <si>
+    <t>港記燒臘</t>
+  </si>
+  <si>
+    <t>701台南市東區東安路97號</t>
+  </si>
+  <si>
+    <t>便宜又大碗的最佳代表，通同65。吃飯時間請早，否則大排長龍。</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/uchutw/1378518823-76928715.jpg</t>
+  </si>
+  <si>
+    <t>鮮果診所</t>
+  </si>
+  <si>
+    <t>704台南市北區長榮路四段68號</t>
+  </si>
+  <si>
+    <t>就是一個醫生開的果汁店，為注重健康...blah blah blah 這故事相信大家都聽過。阿因為健康所以小貴齁。</t>
+  </si>
+  <si>
+    <t>沙拉、冰沙與果汁吧</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/vbphone08/1419764781-1726607618_n.jpg</t>
+  </si>
+  <si>
+    <t>艸疏田木</t>
+  </si>
+  <si>
+    <t>台南市東區育樂街193之2號</t>
+  </si>
+  <si>
+    <t>每天都有不同蔬果，可選擇大中小、食材、醬汁。</t>
+  </si>
+  <si>
+    <t>蔬果沙拉</t>
+  </si>
+  <si>
+    <t>http://www.17life.com/Images/imagesU/d7e22d16-3ad8-47ba-93c2-027c9cd6215a/06.JPG</t>
+  </si>
+  <si>
+    <t>大醬川麵館</t>
+  </si>
+  <si>
+    <t>台南市東區育樂街35號-28</t>
+  </si>
+  <si>
+    <t>價格合理又好吃，整體環境乾淨、衛生</t>
+  </si>
+  <si>
+    <t>http://boylondon.pixnet.net/album/photo/280201807</t>
+  </si>
+  <si>
+    <t>樂品屋</t>
+  </si>
+  <si>
+    <t>台南市東區育樂街131號</t>
+  </si>
+  <si>
+    <t>價格便宜，份量足夠，但座位不多</t>
+  </si>
+  <si>
+    <t>http://natsuki2005.pixnet.net/album/photo/171050229</t>
+  </si>
+  <si>
+    <t>韓朝韓式料理</t>
+  </si>
+  <si>
+    <t>台南市東區東寧路25號</t>
+  </si>
+  <si>
+    <t>餐點好吃，小菜吃到飽</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/0/7/9/cgm62986c6d4a84cc52a1df5fd840d058b6340.jpg</t>
+  </si>
+  <si>
+    <t>100台北市中正區八德路一段82巷9弄13號</t>
+  </si>
+  <si>
+    <t>綠咖哩好吃到升天</t>
+  </si>
+  <si>
+    <t>100台北市中正區八德路一段82巷</t>
+  </si>
+  <si>
+    <t>放學來一包，絕對沒問題</t>
+  </si>
+  <si>
+    <t>100台北市中正區新生南路一段12巷</t>
+  </si>
+  <si>
+    <t>挑戰起士拉到最長，可以免費吃哦！</t>
+  </si>
+  <si>
+    <t>Linyi Street Lane 3, Taipei, Taiwan 100</t>
+  </si>
+  <si>
+    <t>羹麵有媽媽的味道</t>
+  </si>
+  <si>
+    <t>台北市中正區濟南路二段62巷3號</t>
+  </si>
+  <si>
+    <t>料美實在</t>
+  </si>
+  <si>
+    <t>市民大道三段150巷18弄</t>
+  </si>
+  <si>
+    <t>幾乎每一樣都好吃，神之便當店，尤其是土魠魚飯</t>
+  </si>
+  <si>
+    <t>106台北市大安區安東街50號</t>
+  </si>
+  <si>
+    <t>住宿舍必吃，排隊美食、宵夜，俗稱臭臉滷味的每位滷味店</t>
+  </si>
+  <si>
+    <t>台北市安東街45號之11</t>
+  </si>
+  <si>
+    <t>醬汁特別，炸雞排鎖水不乾澀</t>
+  </si>
+  <si>
+    <t>106台北市大安區安東街45-1號</t>
+  </si>
+  <si>
+    <t>宿舍三大店之一，湯特別美味好喝，醬汁也有別於一般關東煮醬，清爽不油膩</t>
+  </si>
+  <si>
+    <t>中正區濟南路二段48巷3號</t>
+  </si>
+  <si>
+    <t>將台式煮麵融入其他特別的食材，例如豆漿麵，清爽特別不油膩。</t>
+  </si>
+  <si>
+    <t>http://img.misshuan.tw/pixnet/8e97f193b8137ad0b887e1a2e5532396.jpg</t>
+  </si>
+  <si>
+    <t>http://farm8.staticflickr.com/7347/11405751035_285c3ac637_o.jpg</t>
+  </si>
+  <si>
+    <t>http://c.share.photo.xuite.net/pmlovestory/1c2fd19/18974094/1024640651_l.jpg</t>
+  </si>
+  <si>
+    <t>https://scontent-tpe1-1.xx.fbcdn.net/v/t1.0-9/1959424_899674273395272_7523767819486015064_n.jpg?oh=88901bf7329d7af51c8e470c7fd6c5b9&amp;oe=58CDC101</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/31.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/32.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/33.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/34.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/35.jpg</t>
+  </si>
+  <si>
+    <t>https://scontent-tpe1-1.xx.fbcdn.net/v/t1.0-9/13442139_1097231880335717_5450540044472393955_n.jpg?oh=ac12ba83f1e887fdc1202a8f4140b9a2&amp;oe=58D29130</t>
+  </si>
+  <si>
+    <t>藝素家</t>
+  </si>
+  <si>
+    <t>台科三餐</t>
+  </si>
+  <si>
+    <t>50元吃好飽，無負擔素食，男女老少都超愛</t>
+  </si>
+  <si>
+    <t>素食</t>
+  </si>
+  <si>
+    <t>http://lh5.ggpht.com/_o9h1grcT4Ok/SUTsgdKnhhI/AAAAAAAAA3g/kAWEcrYQKms/s400/CIMG1856.JPG</t>
+  </si>
+  <si>
+    <t>NTUST</t>
+  </si>
+  <si>
+    <t>台大小小福</t>
+  </si>
+  <si>
+    <t>台大舟山路</t>
+  </si>
+  <si>
+    <t>台大來台科，台科也要去台大，一個反攻(誤)多元的概念</t>
+  </si>
+  <si>
+    <t>麵飯小吃</t>
+  </si>
+  <si>
+    <t>https://c7.staticflickr.com/9/8042/29492525310_86f7f7b467_n.jpg</t>
+  </si>
+  <si>
+    <t>韓風小舖</t>
+  </si>
+  <si>
+    <t>台科一餐</t>
+  </si>
+  <si>
+    <t>分量多，記得要說外帶內用</t>
+  </si>
+  <si>
+    <t>韓式正餐</t>
+  </si>
+  <si>
+    <t>http://3.share.photo.xuite.net/yoimg/13d7e88/4954637/188996987_m.jpg</t>
+  </si>
+  <si>
+    <t>https://pic.gomaji.com/uploads/stores/599/19599/84647/noodle-13.jpg</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/americangod/1380906253-454771206_n.jpg</t>
+  </si>
+  <si>
+    <t>麥當當</t>
+  </si>
+  <si>
+    <t>清大小吃部</t>
+  </si>
+  <si>
+    <t>美式速食</t>
+  </si>
+  <si>
+    <t>早中午晚宵夜</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/sport0472001/normal_1201883561.jpg</t>
+  </si>
+  <si>
+    <t>築地鮮魚</t>
+  </si>
+  <si>
+    <t>300新竹市東區金山十五街5號</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/ivyblueling/1372171734-863783937.jpg</t>
+  </si>
+  <si>
+    <t>江之戶</t>
+  </si>
+  <si>
+    <t>清大宵夜街</t>
+  </si>
+  <si>
+    <t>https://farm9.staticflickr.com/8813/17156624255_3917a46737_b.jpg</t>
+  </si>
+  <si>
+    <t>蘇格貓底</t>
+  </si>
+  <si>
+    <t>清大綜二旁邊</t>
+  </si>
+  <si>
+    <t>燈光美氣氛佳好吃又好聊的二手書餐廳，還有可愛的貓咪</t>
+  </si>
+  <si>
+    <t>午餐、下午茶、晚餐</t>
+  </si>
+  <si>
+    <t>http://b.blog.xuite.net/b/5/8/7/18428208/blog_953367/txt/24812140/0.jpg</t>
+  </si>
+  <si>
+    <t>榮茂滷肉飯</t>
+  </si>
+  <si>
+    <t>宵夜街近機車塔</t>
+  </si>
+  <si>
+    <t>魯肉飯bj4</t>
+  </si>
+  <si>
+    <t>http://iphoto.ipeen.com.tw/photo/comment/501784/803834/cm20150126___b7d627c5fa4299ee17bd7736ccbf57af288.jpg</t>
+  </si>
+  <si>
+    <t>白鬍子</t>
+  </si>
+  <si>
+    <t>牛排機排豬排鐵板麵還有烤麵包和湯和飲料無限量</t>
+  </si>
+  <si>
+    <t>https://c1.staticflickr.com/8/7610/27547336216_6ae6640f7c_o.jpg</t>
+  </si>
+  <si>
+    <t>松原</t>
+  </si>
+  <si>
+    <t>鐵板燒</t>
+  </si>
+  <si>
+    <t>https://pic.pimg.tw/timmyvong/1433329254-2302640703.jpg</t>
+  </si>
+  <si>
+    <t>摩斯漢堡</t>
+  </si>
+  <si>
+    <t>中興大學校內</t>
+  </si>
+  <si>
+    <t>漢堡達人、油炸高手、飲料快手</t>
+  </si>
+  <si>
+    <t>早午晚餐</t>
+  </si>
+  <si>
+    <t>http://www.mos.com.tw/upload/product/20161027_094400_025.jpg</t>
+  </si>
+  <si>
     <t>NCHU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>拾分</t>
-  </si>
-  <si>
-    <t>701台南市東區大學路西段35號</t>
-  </si>
-  <si>
-    <t>座位不多、價位跟份量就是抵早、午兩餐</t>
-  </si>
-  <si>
-    <t>http://iphoto.ipeen.com.tw/photo/comment/201411/cgm9d8744635e9682512946e7b4e5554f00934.jpg</t>
-  </si>
-  <si>
-    <t>NCKU</t>
-  </si>
-  <si>
-    <t>日喜蒸蛋飯</t>
-  </si>
-  <si>
-    <t>台南市育樂街238號</t>
-  </si>
-  <si>
-    <t>便宜又大碗，有飯有蛋有肉，飲食均衡</t>
-  </si>
-  <si>
-    <t>午餐、晚餐</t>
-  </si>
-  <si>
-    <t>http://img.foodieteller.com/20160817010516_16.jpg</t>
-  </si>
-  <si>
-    <t>一點刈包</t>
-  </si>
-  <si>
-    <t>台南市東區小東路156號</t>
-  </si>
-  <si>
-    <t>宵夜就是要吃小吃</t>
-  </si>
-  <si>
-    <t>宵夜</t>
-  </si>
-  <si>
-    <t>http://iphoto.ipeen.com.tw/photo/comment/70319/542782/cgm8327526bc09785ee9e7b62fea8c53974598.jpg</t>
-  </si>
-  <si>
-    <t>小東路大水餃</t>
-  </si>
-  <si>
-    <t>台南市小東路與林森路交叉口人行道上(近卑南燒烤)</t>
-  </si>
-  <si>
-    <t>聽說是男生們晚下課或練球完後的好去處。</t>
-  </si>
-  <si>
-    <t>晚餐、宵夜</t>
-  </si>
-  <si>
-    <t>http://img.foodieteller.com/20160815000841_49.jpg</t>
-  </si>
-  <si>
-    <t>masa loft 瑪莎羅芙</t>
-  </si>
-  <si>
-    <t>台南市東區大學路西段53號3樓(成大光口對面7-11上面)</t>
-  </si>
-  <si>
-    <t>有低消、很適合喝咖啡喝果汁，用蘋果電腦裝裝文青、週五晚上會播放電影</t>
-  </si>
-  <si>
-    <t>早午餐、咖啡店</t>
-  </si>
-  <si>
-    <t>http://synapticism.com/x/taiwan-tainan-masa-loft-1-900x600.jpg</t>
-  </si>
-  <si>
-    <t>勝利早點</t>
-  </si>
-  <si>
-    <t>台灣台南市東區勝利路119號</t>
-  </si>
-  <si>
-    <t>從下午可以吃到晚上，再吃到宵夜，再吃到早餐，約練後撫慰空虛心靈、繼續交友把妹聯絡感情的好去處。（雖然妹不一定喜歡）</t>
-  </si>
-  <si>
-    <t>宵夜、早餐</t>
-  </si>
-  <si>
-    <t>http://b.share.photo.xuite.net/jianing0823/1bbfbc0/8846348/369549748_m.jpg</t>
-  </si>
-  <si>
-    <t>黑工號 嫩仙草</t>
-  </si>
-  <si>
-    <t>台灣台南市東區育樂街185號701</t>
-  </si>
-  <si>
-    <t>打卡折十元，老闆是文青，用蘋果電腦聽蛋堡</t>
-  </si>
-  <si>
-    <t>甜品</t>
-  </si>
-  <si>
-    <t>https://imgur.dcard.tw/51WragS.jpg</t>
-  </si>
-  <si>
-    <t>小碗和食</t>
-  </si>
-  <si>
-    <t>701台南市東區大學路18巷20號</t>
-  </si>
-  <si>
-    <t>餐點260~350以上，選擇不多，但真材實料，且白飯是用厲害的電鍋煮的，很好吃可續碗。</t>
-  </si>
-  <si>
-    <t>https://pgw.udn.com.tw/gw/photo.php?u=http://uc.udn.com.tw/photo/2016/05/28/1/2196797.jpg&amp;x=0&amp;y=0&amp;sw=0&amp;sh=0&amp;sl=W&amp;fw=1050&amp;exp=3600</t>
-  </si>
-  <si>
-    <t>港記燒臘</t>
-  </si>
-  <si>
-    <t>701台南市東區東安路97號</t>
-  </si>
-  <si>
-    <t>便宜又大碗的最佳代表，通同65。吃飯時間請早，否則大排長龍。</t>
-  </si>
-  <si>
-    <t>http://pic.pimg.tw/uchutw/1378518823-76928715.jpg</t>
-  </si>
-  <si>
-    <t>鮮果診所</t>
-  </si>
-  <si>
-    <t>704台南市北區長榮路四段68號</t>
-  </si>
-  <si>
-    <t>就是一個醫生開的果汁店，為注重健康...blah blah blah 這故事相信大家都聽過。阿因為健康所以小貴齁。</t>
-  </si>
-  <si>
-    <t>沙拉、冰沙與果汁吧</t>
-  </si>
-  <si>
-    <t>http://pic.pimg.tw/vbphone08/1419764781-1726607618_n.jpg</t>
-  </si>
-  <si>
-    <t>艸疏田木</t>
-  </si>
-  <si>
-    <t>台南市東區育樂街193之2號</t>
-  </si>
-  <si>
-    <t>每天都有不同蔬果，可選擇大中小、食材、醬汁。</t>
-  </si>
-  <si>
-    <t>蔬果沙拉</t>
-  </si>
-  <si>
-    <t>http://www.17life.com/Images/imagesU/d7e22d16-3ad8-47ba-93c2-027c9cd6215a/06.JPG</t>
-  </si>
-  <si>
-    <t>大醬川麵館</t>
-  </si>
-  <si>
-    <t>台南市東區育樂街35號-28</t>
-  </si>
-  <si>
-    <t>價格合理又好吃，整體環境乾淨、衛生</t>
-  </si>
-  <si>
-    <t>http://boylondon.pixnet.net/album/photo/280201807</t>
-  </si>
-  <si>
-    <t>樂品屋</t>
-  </si>
-  <si>
-    <t>台南市東區育樂街131號</t>
-  </si>
-  <si>
-    <t>價格便宜，份量足夠，但座位不多</t>
-  </si>
-  <si>
-    <t>http://natsuki2005.pixnet.net/album/photo/171050229</t>
-  </si>
-  <si>
-    <t>韓朝韓式料理</t>
-  </si>
-  <si>
-    <t>台南市東區東寧路25號</t>
-  </si>
-  <si>
-    <t>餐點好吃，小菜吃到飽</t>
-  </si>
-  <si>
-    <t>http://iphoto.ipeen.com.tw/photo/comment/0/7/9/cgm62986c6d4a84cc52a1df5fd840d058b6340.jpg</t>
-  </si>
-  <si>
-    <t>100台北市中正區八德路一段82巷9弄13號</t>
-  </si>
-  <si>
-    <t>綠咖哩好吃到升天</t>
-  </si>
-  <si>
-    <t>100台北市中正區八德路一段82巷</t>
-  </si>
-  <si>
-    <t>放學來一包，絕對沒問題</t>
-  </si>
-  <si>
-    <t>100台北市中正區新生南路一段12巷</t>
-  </si>
-  <si>
-    <t>挑戰起士拉到最長，可以免費吃哦！</t>
-  </si>
-  <si>
-    <t>Linyi Street Lane 3, Taipei, Taiwan 100</t>
-  </si>
-  <si>
-    <t>羹麵有媽媽的味道</t>
-  </si>
-  <si>
-    <t>台北市中正區濟南路二段62巷3號</t>
-  </si>
-  <si>
-    <t>料美實在</t>
-  </si>
-  <si>
-    <t>市民大道三段150巷18弄</t>
-  </si>
-  <si>
-    <t>幾乎每一樣都好吃，神之便當店，尤其是土魠魚飯</t>
-  </si>
-  <si>
-    <t>106台北市大安區安東街50號</t>
-  </si>
-  <si>
-    <t>住宿舍必吃，排隊美食、宵夜，俗稱臭臉滷味的每位滷味店</t>
-  </si>
-  <si>
-    <t>台北市安東街45號之11</t>
-  </si>
-  <si>
-    <t>醬汁特別，炸雞排鎖水不乾澀</t>
-  </si>
-  <si>
-    <t>106台北市大安區安東街45-1號</t>
-  </si>
-  <si>
-    <t>宿舍三大店之一，湯特別美味好喝，醬汁也有別於一般關東煮醬，清爽不油膩</t>
-  </si>
-  <si>
-    <t>中正區濟南路二段48巷3號</t>
-  </si>
-  <si>
-    <t>將台式煮麵融入其他特別的食材，例如豆漿麵，清爽特別不油膩。</t>
-  </si>
-  <si>
-    <t>http://img.misshuan.tw/pixnet/8e97f193b8137ad0b887e1a2e5532396.jpg</t>
-  </si>
-  <si>
-    <t>http://farm8.staticflickr.com/7347/11405751035_285c3ac637_o.jpg</t>
-  </si>
-  <si>
-    <t>http://c.share.photo.xuite.net/pmlovestory/1c2fd19/18974094/1024640651_l.jpg</t>
-  </si>
-  <si>
-    <t>https://scontent-tpe1-1.xx.fbcdn.net/v/t1.0-9/1959424_899674273395272_7523767819486015064_n.jpg?oh=88901bf7329d7af51c8e470c7fd6c5b9&amp;oe=58CDC101</t>
-  </si>
-  <si>
-    <t>http://mspxa.blob.core.windows.net/restaurant/31.jpg</t>
-  </si>
-  <si>
-    <t>http://mspxa.blob.core.windows.net/restaurant/32.jpg</t>
-  </si>
-  <si>
-    <t>http://mspxa.blob.core.windows.net/restaurant/33.jpg</t>
-  </si>
-  <si>
-    <t>http://mspxa.blob.core.windows.net/restaurant/34.jpg</t>
-  </si>
-  <si>
-    <t>http://mspxa.blob.core.windows.net/restaurant/35.jpg</t>
-  </si>
-  <si>
-    <t>https://scontent-tpe1-1.xx.fbcdn.net/v/t1.0-9/13442139_1097231880335717_5450540044472393955_n.jpg?oh=ac12ba83f1e887fdc1202a8f4140b9a2&amp;oe=58D29130</t>
-  </si>
-  <si>
-    <t>藝素家</t>
-  </si>
-  <si>
-    <t>台科三餐</t>
-  </si>
-  <si>
-    <t>50元吃好飽，無負擔素食，男女老少都超愛</t>
-  </si>
-  <si>
-    <t>素食</t>
-  </si>
-  <si>
-    <t>http://lh5.ggpht.com/_o9h1grcT4Ok/SUTsgdKnhhI/AAAAAAAAA3g/kAWEcrYQKms/s400/CIMG1856.JPG</t>
-  </si>
-  <si>
-    <t>NTUST</t>
-  </si>
-  <si>
-    <t>台大小小福</t>
-  </si>
-  <si>
-    <t>台大舟山路</t>
-  </si>
-  <si>
-    <t>台大來台科，台科也要去台大，一個反攻(誤)多元的概念</t>
-  </si>
-  <si>
-    <t>麵飯小吃</t>
-  </si>
-  <si>
-    <t>https://c7.staticflickr.com/9/8042/29492525310_86f7f7b467_n.jpg</t>
-  </si>
-  <si>
-    <t>韓風小舖</t>
-  </si>
-  <si>
-    <t>台科一餐</t>
-  </si>
-  <si>
-    <t>分量多，記得要說外帶內用</t>
-  </si>
-  <si>
-    <t>韓式正餐</t>
-  </si>
-  <si>
-    <t>http://3.share.photo.xuite.net/yoimg/13d7e88/4954637/188996987_m.jpg</t>
-  </si>
-  <si>
-    <t>https://pic.gomaji.com/uploads/stores/599/19599/84647/noodle-13.jpg</t>
-  </si>
-  <si>
-    <t>http://pic.pimg.tw/americangod/1380906253-454771206_n.jpg</t>
-  </si>
-  <si>
-    <t>麥當當</t>
-  </si>
-  <si>
-    <t>清大小吃部</t>
-  </si>
-  <si>
-    <t>美式速食</t>
-  </si>
-  <si>
-    <t>早中午晚宵夜</t>
-  </si>
-  <si>
-    <t>http://pic.pimg.tw/sport0472001/normal_1201883561.jpg</t>
-  </si>
-  <si>
-    <t>築地鮮魚</t>
-  </si>
-  <si>
-    <t>300新竹市東區金山十五街5號</t>
-  </si>
-  <si>
-    <t>http://pic.pimg.tw/ivyblueling/1372171734-863783937.jpg</t>
-  </si>
-  <si>
-    <t>江之戶</t>
-  </si>
-  <si>
-    <t>清大宵夜街</t>
-  </si>
-  <si>
-    <t>https://farm9.staticflickr.com/8813/17156624255_3917a46737_b.jpg</t>
-  </si>
-  <si>
-    <t>蘇格貓底</t>
-  </si>
-  <si>
-    <t>清大綜二旁邊</t>
-  </si>
-  <si>
-    <t>燈光美氣氛佳好吃又好聊的二手書餐廳，還有可愛的貓咪</t>
-  </si>
-  <si>
-    <t>午餐、下午茶、晚餐</t>
-  </si>
-  <si>
-    <t>http://b.blog.xuite.net/b/5/8/7/18428208/blog_953367/txt/24812140/0.jpg</t>
-  </si>
-  <si>
-    <t>榮茂滷肉飯</t>
-  </si>
-  <si>
-    <t>宵夜街近機車塔</t>
-  </si>
-  <si>
-    <t>魯肉飯bj4</t>
-  </si>
-  <si>
-    <t>http://iphoto.ipeen.com.tw/photo/comment/501784/803834/cm20150126___b7d627c5fa4299ee17bd7736ccbf57af288.jpg</t>
-  </si>
-  <si>
-    <t>白鬍子</t>
-  </si>
-  <si>
-    <t>牛排機排豬排鐵板麵還有烤麵包和湯和飲料無限量</t>
-  </si>
-  <si>
-    <t>https://c1.staticflickr.com/8/7610/27547336216_6ae6640f7c_o.jpg</t>
-  </si>
-  <si>
-    <t>松原</t>
-  </si>
-  <si>
-    <t>鐵板燒</t>
-  </si>
-  <si>
-    <t>https://pic.pimg.tw/timmyvong/1433329254-2302640703.jpg</t>
+  </si>
+  <si>
+    <t>餃佼者</t>
+  </si>
+  <si>
+    <t>中興正門學府路</t>
+  </si>
+  <si>
+    <t>餡多味美水餃館</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/food1206/1406443679-179741365_n.jpg</t>
+  </si>
+  <si>
+    <t>炒飯超人</t>
+  </si>
+  <si>
+    <t>工學路</t>
+  </si>
+  <si>
+    <t>大家最愛打卡的炒飯店</t>
+  </si>
+  <si>
+    <t>https://pic.pimg.tw/libramam0928/1452228217-3145551492_n.jpg?v=1452228502</t>
+  </si>
+  <si>
+    <t>小慢慢</t>
+  </si>
+  <si>
+    <t>興大正門八方雲集旁巷子內</t>
+  </si>
+  <si>
+    <t>量多、氣氛佳義大利麵館</t>
+  </si>
+  <si>
+    <t>https://scontent-tpe1-1.xx.fbcdn.net/v/t1.0-9/10557174_751973698203755_33189362027699724_n.jpg?oh=48f99a7d7f9c2bdbb7a5f01d315da488&amp;oe=58B43186</t>
+  </si>
+  <si>
+    <t>八十八號牛排</t>
+  </si>
+  <si>
+    <t>忠孝夜市</t>
+  </si>
+  <si>
+    <t>附贈免費濃湯、飲料</t>
+  </si>
+  <si>
+    <t>https://scontent-tpe1-1.xx.fbcdn.net/t31.0-8/1421157_1408764496064068_7621902645206087616_o.jpg</t>
+  </si>
+  <si>
+    <t>小倫敦</t>
+  </si>
+  <si>
+    <t>興大正門仁義街</t>
+  </si>
+  <si>
+    <t>鬆餅、西式簡餐</t>
+  </si>
+  <si>
+    <t>下午茶、晚餐</t>
+  </si>
+  <si>
+    <t>https://scontent-tpe1-1.xx.fbcdn.net/v/t1.0-9/14695465_994933663946584_4981465083469994304_n.jpg?oh=82532ff0317c07a765159a84dce6a358&amp;oe=58D055E6</t>
+  </si>
+  <si>
+    <t>十勝帶廣</t>
+  </si>
+  <si>
+    <t>復興路上</t>
+  </si>
+  <si>
+    <t>無國界料理</t>
+  </si>
+  <si>
+    <t>https://scontent-tpe1-1.xx.fbcdn.net/t31.0-8/775077_1113530005337924_6845392692122816221_o.jpg</t>
+  </si>
+  <si>
+    <t>面對麵</t>
+  </si>
+  <si>
+    <t>興大正門巷子內</t>
+  </si>
+  <si>
+    <t>各式麵食簡餐</t>
+  </si>
+  <si>
+    <t>https://scontent-tpe1-1.xx.fbcdn.net/v/t1.0-9/10553583_1013277875354099_5293449108875084830_n.jpg?oh=dc7b34ea1ce7d9f8b0faf8f0455a2d8c&amp;oe=58C00B17</t>
+  </si>
+  <si>
+    <t>青日本料理</t>
+  </si>
+  <si>
+    <t>南門路女宿街</t>
+  </si>
+  <si>
+    <t>平價日式料理、種類豐富</t>
+  </si>
+  <si>
+    <t>http://pic.pimg.tw/kellylai1030/1394025912-1110634837_n.jpg</t>
+  </si>
+  <si>
+    <t>遇見PASTA．和食</t>
+  </si>
+  <si>
+    <t>台中市南區永和街264號</t>
+  </si>
+  <si>
+    <t>隱藏在巷口中高檔平價和食館</t>
+  </si>
+  <si>
+    <t>http://7.share.photo.xuite.net/pswo210525/1726ba6/19686699/1103508859_x.jpg</t>
   </si>
 </sst>
 </file>
@@ -1431,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2307,318 +2432,318 @@
         <v>159</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.75">
-      <c r="A44" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="2" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="5" t="s">
         <v>189</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="5" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>7</v>
+        <v>197</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="5" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="5" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="5" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="5" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="5" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="5" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="5" t="s">
-        <v>251</v>
+        <v>160</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>161</v>
+        <v>19</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>275</v>
@@ -2629,13 +2754,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>19</v>
@@ -2649,16 +2774,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>19</v>
+        <v>166</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>277</v>
@@ -2669,16 +2794,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>278</v>
@@ -2689,16 +2814,16 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>279</v>
@@ -2709,16 +2834,16 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>280</v>
@@ -2729,16 +2854,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>281</v>
@@ -2749,16 +2874,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>282</v>
@@ -2769,16 +2894,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>283</v>
@@ -2789,99 +2914,97 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="5" t="s">
-        <v>177</v>
+        <v>284</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>166</v>
+        <v>287</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>162</v>
+        <v>289</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="5" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E69" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F69" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="F69" s="5" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="5" t="s">
-        <v>296</v>
+        <v>178</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>297</v>
+        <v>179</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>298</v>
+        <v>180</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>299</v>
+        <v>13</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>300</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>290</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="5" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="D72" s="5" t="s">
-        <v>13</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="D72" s="5"/>
       <c r="E72" s="5" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>181</v>
@@ -2889,17 +3012,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D73" s="5"/>
+        <v>188</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="E73" s="5" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>181</v>
@@ -2907,19 +3032,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="5" t="s">
-        <v>186</v>
+        <v>302</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>187</v>
+        <v>303</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>13</v>
+        <v>305</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>181</v>
@@ -2927,19 +3052,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="5" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>306</v>
+        <v>13</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>181</v>
@@ -2947,10 +3072,10 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>188</v>
@@ -2959,7 +3084,7 @@
         <v>13</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F76" s="5" t="s">
         <v>181</v>
@@ -2967,19 +3092,19 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>188</v>
+        <v>315</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>13</v>
+        <v>316</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F77" s="5" t="s">
         <v>181</v>
@@ -2987,19 +3112,19 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>317</v>
+        <v>13</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F78" s="5" t="s">
         <v>181</v>
@@ -3007,19 +3132,19 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="5" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="F79" s="5" t="s">
         <v>181</v>
@@ -3027,19 +3152,19 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F80" s="5" t="s">
         <v>181</v>
@@ -3047,22 +3172,202 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="D81" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E81" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>181</v>
+      <c r="E82" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F87" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3100,9 +3405,8 @@
     <hyperlink ref="E41" r:id="rId30"/>
     <hyperlink ref="E42" r:id="rId31"/>
     <hyperlink ref="E43" r:id="rId32"/>
-    <hyperlink ref="E44" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId34"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="399">
   <si>
     <t>Name</t>
   </si>
@@ -1122,13 +1122,136 @@
   <si>
     <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU5.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nola Kitchen 紐澳良小廚</t>
+  </si>
+  <si>
+    <t>桃園市中壢區中大路300號</t>
+  </si>
+  <si>
+    <t>空間很棒寬敞適合聊天，氣氛輕鬆，餐點好吃</t>
+  </si>
+  <si>
+    <t>https://pic.pimg.tw/firebird0616/1454227384-2295432808_n.jpg</t>
+  </si>
+  <si>
+    <t>NCU</t>
+  </si>
+  <si>
+    <t>松果餐廳</t>
+  </si>
+  <si>
+    <t>320桃園市中壢區中大路300號(中央大學男七舍1樓)</t>
+  </si>
+  <si>
+    <t>價格比外面便宜，乾淨明亮</t>
+  </si>
+  <si>
+    <t>https://pic.pimg.tw/zprank23/1432565230-3023264159_n.jpg</t>
+  </si>
+  <si>
+    <t>田園美食屋</t>
+  </si>
+  <si>
+    <t>320桃園市中壢區中央路216巷21號</t>
+  </si>
+  <si>
+    <t>餐點好吃，但出餐速度慢</t>
+  </si>
+  <si>
+    <t>http://1.bp.blogspot.com/-itDJvV9gql4/VcRGyQEbTeI/AAAAAAAAfJg/c9Xv9_ciIhA/s1600/IMAG6783.jpg</t>
+  </si>
+  <si>
+    <t>幸福時刻餐廳</t>
+  </si>
+  <si>
+    <t>320桃園市中壢區中央路216巷8號</t>
+  </si>
+  <si>
+    <t>CP值高，口味獨特</t>
+  </si>
+  <si>
+    <t>http://img4.kingdge.com/img/64b58fd289b9bcba104e4f8680c17ea1&amp;w=600</t>
+  </si>
+  <si>
+    <t>麥克小姐</t>
+  </si>
+  <si>
+    <t>324桃園市平鎮區中央路145號</t>
+  </si>
+  <si>
+    <t>CP值很高，份量足且精緻，連水果都很甜</t>
+  </si>
+  <si>
+    <t>http://photo.518.com.tw//photo/2/502/3076423/14439466981716906128.jpg</t>
+  </si>
+  <si>
+    <t>Daddy's 美式餐廳</t>
+  </si>
+  <si>
+    <t>320桃園縣中壢市中央路170號</t>
+  </si>
+  <si>
+    <t>店內氣氛很棒，環境還算整潔，假日跟三兩好友聚餐的好選擇</t>
+  </si>
+  <si>
+    <t>http://1.share.photo.xuite.net/jerome1103/111127c/5078189/1083455183_o.jpg</t>
+  </si>
+  <si>
+    <t>友竹居茶藝館</t>
+  </si>
+  <si>
+    <t>32049桃園市中壢區中大路32號</t>
+  </si>
+  <si>
+    <t>餐點好吃，服務人員親切，飯後還有水果跟甜品</t>
+  </si>
+  <si>
+    <t>https://my210395.files.wordpress.com/2012/04/p1020646.jpg</t>
+  </si>
+  <si>
+    <t>新轉角手作料理</t>
+  </si>
+  <si>
+    <t>320桃園市中壢區大享街69號</t>
+  </si>
+  <si>
+    <t>好地方，東西好吃、新鮮，價格實在。東西多到吃不下</t>
+  </si>
+  <si>
+    <t>https://pic.pimg.tw/fishchan0730/1443547291-3030770501_n.jpg</t>
+  </si>
+  <si>
+    <t>拉亞漢堡</t>
+  </si>
+  <si>
+    <t>桃園市中壢區中大路300號(女14舍B1)</t>
+  </si>
+  <si>
+    <t>東西稍貴但精緻，服務人員好</t>
+  </si>
+  <si>
+    <t>http://www.baohunter.com/public/cdn/restaurant/2665/3_480_320.jpg</t>
+  </si>
+  <si>
+    <t>綠風草原</t>
+  </si>
+  <si>
+    <t>桃園市平鎮區長安路216巷168號</t>
+  </si>
+  <si>
+    <t>乾淨、維持的很棒，很放鬆的地方，東西OK，價格中上</t>
+  </si>
+  <si>
+    <t>https://media-cdn.tripadvisor.com/media/photo-s/08/57/df/f4/caption.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1182,6 +1305,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14.4"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1191,12 +1321,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1208,7 +1353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,6 +1368,11 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1539,13 +1689,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E87" sqref="E87"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.75" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
@@ -1556,7 +1706,7 @@
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -1596,7 +1746,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="3" t="s">
         <v>43</v>
       </c>
@@ -1616,7 +1766,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="3" t="s">
         <v>48</v>
       </c>
@@ -1636,7 +1786,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="3" t="s">
         <v>51</v>
       </c>
@@ -1656,7 +1806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="18.75">
       <c r="A6" s="3" t="s">
         <v>55</v>
       </c>
@@ -1676,7 +1826,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="18.75">
       <c r="A7" s="3" t="s">
         <v>58</v>
       </c>
@@ -1696,7 +1846,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="18.75">
       <c r="A8" s="3" t="s">
         <v>61</v>
       </c>
@@ -1716,7 +1866,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="18.75">
       <c r="A9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1736,7 +1886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="18.75">
       <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1756,7 +1906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="18.75">
       <c r="A11" s="3" t="s">
         <v>22</v>
       </c>
@@ -1776,7 +1926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="18.75">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1796,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="18.75">
       <c r="A13" s="3" t="s">
         <v>32</v>
       </c>
@@ -1816,7 +1966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="18.75">
       <c r="A14" s="3" t="s">
         <v>69</v>
       </c>
@@ -1836,7 +1986,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="18.75">
       <c r="A15" s="3" t="s">
         <v>75</v>
       </c>
@@ -1856,7 +2006,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="3" t="s">
         <v>79</v>
       </c>
@@ -1876,7 +2026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="3" t="s">
         <v>84</v>
       </c>
@@ -1896,7 +2046,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5">
         <v>123</v>
       </c>
@@ -1916,7 +2066,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1936,7 +2086,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +2106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
         <v>14</v>
       </c>
@@ -1976,7 +2126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
         <v>97</v>
       </c>
@@ -1996,7 +2146,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
         <v>101</v>
       </c>
@@ -2016,7 +2166,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
         <v>105</v>
       </c>
@@ -2036,7 +2186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
         <v>109</v>
       </c>
@@ -2056,7 +2206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
         <v>113</v>
       </c>
@@ -2076,7 +2226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
         <v>117</v>
       </c>
@@ -2096,7 +2246,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="18.75">
       <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
@@ -2116,7 +2266,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="18.75">
       <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
@@ -2136,7 +2286,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="18.75">
       <c r="A30" s="3" t="s">
         <v>32</v>
       </c>
@@ -2156,7 +2306,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="18.75">
       <c r="A31" s="3" t="s">
         <v>36</v>
       </c>
@@ -2176,7 +2326,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="18.75">
       <c r="A32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2196,7 +2346,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
         <v>153</v>
       </c>
@@ -2216,7 +2366,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
         <v>158</v>
       </c>
@@ -2236,7 +2386,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
         <v>163</v>
       </c>
@@ -2256,7 +2406,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
         <v>168</v>
       </c>
@@ -2276,7 +2426,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
         <v>173</v>
       </c>
@@ -2296,7 +2446,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
         <v>178</v>
       </c>
@@ -2316,7 +2466,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
         <v>183</v>
       </c>
@@ -2336,7 +2486,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
         <v>188</v>
       </c>
@@ -2356,7 +2506,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
         <v>192</v>
       </c>
@@ -2376,7 +2526,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
         <v>196</v>
       </c>
@@ -2396,7 +2546,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
         <v>201</v>
       </c>
@@ -2416,7 +2566,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
         <v>206</v>
       </c>
@@ -2436,7 +2586,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
         <v>210</v>
       </c>
@@ -2456,7 +2606,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
         <v>214</v>
       </c>
@@ -2476,7 +2626,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
         <v>124</v>
       </c>
@@ -2496,7 +2646,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
         <v>127</v>
       </c>
@@ -2516,7 +2666,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
@@ -2536,7 +2686,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
         <v>129</v>
       </c>
@@ -2556,7 +2706,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
         <v>131</v>
       </c>
@@ -2576,7 +2726,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
         <v>133</v>
       </c>
@@ -2596,7 +2746,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
         <v>135</v>
       </c>
@@ -2616,7 +2766,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
         <v>137</v>
       </c>
@@ -2636,7 +2786,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
         <v>139</v>
       </c>
@@ -2656,7 +2806,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
         <v>141</v>
       </c>
@@ -2676,7 +2826,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
         <v>248</v>
       </c>
@@ -2696,7 +2846,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
         <v>254</v>
       </c>
@@ -2716,7 +2866,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" s="2" t="s">
         <v>259</v>
       </c>
@@ -2736,7 +2886,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
         <v>142</v>
       </c>
@@ -2756,7 +2906,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
         <v>146</v>
       </c>
@@ -2773,7 +2923,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
         <v>150</v>
       </c>
@@ -2793,7 +2943,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
         <v>266</v>
       </c>
@@ -2813,7 +2963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
         <v>271</v>
       </c>
@@ -2833,7 +2983,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
         <v>274</v>
       </c>
@@ -2853,7 +3003,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
         <v>277</v>
       </c>
@@ -2873,7 +3023,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
         <v>282</v>
       </c>
@@ -2893,7 +3043,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
         <v>286</v>
       </c>
@@ -2913,7 +3063,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
         <v>289</v>
       </c>
@@ -2933,7 +3083,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
         <v>292</v>
       </c>
@@ -2953,7 +3103,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
         <v>298</v>
       </c>
@@ -2973,7 +3123,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
         <v>302</v>
       </c>
@@ -2993,7 +3143,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
         <v>306</v>
       </c>
@@ -3013,7 +3163,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
         <v>310</v>
       </c>
@@ -3033,7 +3183,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
         <v>314</v>
       </c>
@@ -3053,7 +3203,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
         <v>319</v>
       </c>
@@ -3073,7 +3223,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
         <v>323</v>
       </c>
@@ -3093,7 +3243,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
         <v>327</v>
       </c>
@@ -3113,7 +3263,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6">
       <c r="A79" s="2" t="s">
         <v>331</v>
       </c>
@@ -3133,7 +3283,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="16.5">
       <c r="A80" s="2" t="s">
         <v>338</v>
       </c>
@@ -3153,7 +3303,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="16.5">
       <c r="A81" s="2" t="s">
         <v>343</v>
       </c>
@@ -3173,7 +3323,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16.5">
       <c r="A82" s="2" t="s">
         <v>346</v>
       </c>
@@ -3193,7 +3343,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="16.5">
       <c r="A83" s="2" t="s">
         <v>350</v>
       </c>
@@ -3213,7 +3363,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="17.25" thickBot="1">
       <c r="A84" s="2" t="s">
         <v>354</v>
       </c>
@@ -3231,6 +3381,206 @@
       </c>
       <c r="F84" s="2" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A85" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="38.25" thickBot="1">
+      <c r="A86" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C86" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A87" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A88" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A89" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A90" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E90" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A91" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="F91" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A92" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E92" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A93" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A94" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="F94" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3262,8 +3612,18 @@
     <hyperlink ref="E82" r:id="rId24"/>
     <hyperlink ref="E83" r:id="rId25"/>
     <hyperlink ref="E84" r:id="rId26"/>
+    <hyperlink ref="E85" r:id="rId27"/>
+    <hyperlink ref="E86" r:id="rId28"/>
+    <hyperlink ref="E87" r:id="rId29"/>
+    <hyperlink ref="E88" r:id="rId30"/>
+    <hyperlink ref="E89" r:id="rId31" display="http://photo.518.com.tw/photo/2/502/3076423/14439466981716906128.jpg"/>
+    <hyperlink ref="E90" r:id="rId32"/>
+    <hyperlink ref="E91" r:id="rId33"/>
+    <hyperlink ref="E92" r:id="rId34"/>
+    <hyperlink ref="E93" r:id="rId35"/>
+    <hyperlink ref="E94" r:id="rId36"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="438">
   <si>
     <t>Name</t>
   </si>
@@ -387,19 +387,19 @@
   </si>
   <si>
     <t>(這是測試資料)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NTU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NCTU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NCKU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>咖食堂</t>
@@ -1036,79 +1036,79 @@
   </si>
   <si>
     <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU1.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>NSYSU</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>點心</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>豆爸豆花</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>一份原味豆花才25元!完全就是真材實料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU2.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>建國夜市-鹽埕區建國路和公園二路交界</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>晚餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金品牛排</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>免費玉米濃湯、紅茶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU3.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>鴨肉珍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市鹽埕區五福四路258號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>老字號鴨肉飯</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>午、晚餐</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>樺達奶茶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>高雄市鹽埕區新樂街99號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>圖片來自 SANDY の 粉紅甜點</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU4.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>元福香菇肉羹</t>
@@ -1121,7 +1121,7 @@
   </si>
   <si>
     <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU5.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Nola Kitchen 紐澳良小廚</t>
@@ -1245,25 +1245,138 @@
   </si>
   <si>
     <t>https://media-cdn.tripadvisor.com/media/photo-s/08/57/df/f4/caption.jpg</t>
+  </si>
+  <si>
+    <t>鴨媽廚房</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區濱海二路23-3號</t>
+  </si>
+  <si>
+    <t>各式炒飯、麵</t>
+  </si>
+  <si>
+    <t>午、晚餐</t>
+  </si>
+  <si>
+    <t>西子灣吳記</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區鼓波街19-2號</t>
+  </si>
+  <si>
+    <t>好吃的水餃</t>
+  </si>
+  <si>
+    <t>拉波米亞</t>
+  </si>
+  <si>
+    <t>隧道口旁邊</t>
+  </si>
+  <si>
+    <t>義大利麵</t>
+  </si>
+  <si>
+    <t>麥味登</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區臨海二路56號</t>
+  </si>
+  <si>
+    <t>就是麥味登</t>
+  </si>
+  <si>
+    <t>晨間廚房</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區臨海二路52號</t>
+  </si>
+  <si>
+    <t>西式早餐跟午餐</t>
+  </si>
+  <si>
+    <t>早、午餐</t>
+  </si>
+  <si>
+    <t>乾坤麵店</t>
+  </si>
+  <si>
+    <t>高雄市鹽埕區七賢三路55號</t>
+  </si>
+  <si>
+    <t>30元的麵、經濟實惠的最佳選擇</t>
+  </si>
+  <si>
+    <t>早午晚宵夜</t>
+  </si>
+  <si>
+    <t>劉江便當</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區臨海二路31之1號</t>
+  </si>
+  <si>
+    <t>便宜吃得飽料多實在</t>
+  </si>
+  <si>
+    <t>丹丹漢堡</t>
+  </si>
+  <si>
+    <t>西子灣捷運站一號出口對面</t>
+  </si>
+  <si>
+    <t>來高雄必吃</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU6.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紹興炒飯</t>
+  </si>
+  <si>
+    <t>高雄市鼓山區濱海一路105號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打卡折10元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU7.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU8.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU9.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU10.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU11.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU12.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU13.jpg</t>
+  </si>
+  <si>
+    <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU14.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
-      <family val="2"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
@@ -1292,14 +1405,6 @@
     </font>
     <font>
       <sz val="14.4"/>
-      <color theme="1" tint="0.499984740745262"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
@@ -1345,39 +1450,33 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1689,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F94"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G90" sqref="G90"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1701,7 +1800,7 @@
     <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="12" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="54.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
     <col min="7" max="16384" width="9" style="2"/>
   </cols>
@@ -1739,7 +1838,7 @@
       <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F2" s="3" t="s">
@@ -1759,7 +1858,7 @@
       <c r="D3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -1779,7 +1878,7 @@
       <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="7" t="s">
         <v>50</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -1799,7 +1898,7 @@
       <c r="D5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="7" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -1819,7 +1918,7 @@
       <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="7" t="s">
         <v>57</v>
       </c>
       <c r="F6" s="3" t="s">
@@ -1839,7 +1938,7 @@
       <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="7" t="s">
         <v>60</v>
       </c>
       <c r="F7" s="3" t="s">
@@ -1859,7 +1958,7 @@
       <c r="D8" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -1879,7 +1978,7 @@
       <c r="D9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="7" t="s">
         <v>68</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -1899,7 +1998,7 @@
       <c r="D10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -1919,7 +2018,7 @@
       <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="7" t="s">
         <v>26</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -1939,7 +2038,7 @@
       <c r="D12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="7" t="s">
         <v>31</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -1959,7 +2058,7 @@
       <c r="D13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -1979,7 +2078,7 @@
       <c r="D14" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="7" t="s">
         <v>73</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -1999,7 +2098,7 @@
       <c r="D15" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>78</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -2019,7 +2118,7 @@
       <c r="D16" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="7" t="s">
         <v>83</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -2039,7 +2138,7 @@
       <c r="D17" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>88</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -2047,7 +2146,7 @@
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>123</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2259,7 +2358,7 @@
       <c r="D28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -2279,7 +2378,7 @@
       <c r="D29" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -2299,7 +2398,7 @@
       <c r="D30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -2319,7 +2418,7 @@
       <c r="D31" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="7" t="s">
         <v>38</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -2339,7 +2438,7 @@
       <c r="D32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -3296,7 +3395,7 @@
       <c r="D80" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="7" t="s">
         <v>335</v>
       </c>
       <c r="F80" s="2" t="s">
@@ -3316,7 +3415,7 @@
       <c r="D81" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="7" t="s">
         <v>340</v>
       </c>
       <c r="F81" s="2" t="s">
@@ -3336,7 +3435,7 @@
       <c r="D82" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="7" t="s">
         <v>345</v>
       </c>
       <c r="F82" s="2" t="s">
@@ -3356,7 +3455,7 @@
       <c r="D83" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="7" t="s">
         <v>353</v>
       </c>
       <c r="F83" s="2" t="s">
@@ -3376,7 +3475,7 @@
       <c r="D84" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="7" t="s">
         <v>357</v>
       </c>
       <c r="F84" s="2" t="s">
@@ -3384,246 +3483,388 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E85" s="8" t="s">
+      <c r="E85" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="38.25" thickBot="1">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="B86" s="7" t="s">
+      <c r="B86" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="E86" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B88" s="7" t="s">
+      <c r="B88" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C88" s="7" t="s">
+      <c r="C88" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="C89" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="B90" s="7" t="s">
+      <c r="B90" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="C90" s="7" t="s">
+      <c r="C90" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="C91" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B92" s="7" t="s">
+      <c r="B92" s="5" t="s">
         <v>388</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="C92" s="5" t="s">
         <v>389</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="E93" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="5" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="B94" s="7" t="s">
+      <c r="B94" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E94" s="8" t="s">
+      <c r="E94" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="5" t="s">
         <v>362</v>
       </c>
     </row>
+    <row r="95" spans="1:6" ht="16.5">
+      <c r="A95" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="16.5">
+      <c r="A96" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="16.5">
+      <c r="A97" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="16.5">
+      <c r="A98" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="16.5">
+      <c r="A99" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="16.5">
+      <c r="A100" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="16.5">
+      <c r="A101" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="16.5">
+      <c r="A102" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="16.5">
+      <c r="A103" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B103" t="s">
+        <v>428</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E6" r:id="rId5"/>
-    <hyperlink ref="E7" r:id="rId6"/>
-    <hyperlink ref="E8" r:id="rId7"/>
-    <hyperlink ref="E9" r:id="rId8"/>
-    <hyperlink ref="E10" r:id="rId9"/>
-    <hyperlink ref="E11" r:id="rId10"/>
-    <hyperlink ref="E12" r:id="rId11"/>
-    <hyperlink ref="E13" r:id="rId12"/>
-    <hyperlink ref="E14" r:id="rId13"/>
-    <hyperlink ref="E15" r:id="rId14"/>
-    <hyperlink ref="E16" r:id="rId15"/>
-    <hyperlink ref="E17" r:id="rId16"/>
-    <hyperlink ref="E28" r:id="rId17"/>
-    <hyperlink ref="E29" r:id="rId18"/>
-    <hyperlink ref="E30" r:id="rId19"/>
-    <hyperlink ref="E31" r:id="rId20"/>
-    <hyperlink ref="E32" r:id="rId21"/>
-    <hyperlink ref="E80" r:id="rId22"/>
-    <hyperlink ref="E81" r:id="rId23"/>
-    <hyperlink ref="E82" r:id="rId24"/>
-    <hyperlink ref="E83" r:id="rId25"/>
-    <hyperlink ref="E84" r:id="rId26"/>
-    <hyperlink ref="E85" r:id="rId27"/>
-    <hyperlink ref="E86" r:id="rId28"/>
-    <hyperlink ref="E87" r:id="rId29"/>
-    <hyperlink ref="E88" r:id="rId30"/>
-    <hyperlink ref="E89" r:id="rId31" display="http://photo.518.com.tw/photo/2/502/3076423/14439466981716906128.jpg"/>
-    <hyperlink ref="E90" r:id="rId32"/>
-    <hyperlink ref="E91" r:id="rId33"/>
-    <hyperlink ref="E92" r:id="rId34"/>
-    <hyperlink ref="E93" r:id="rId35"/>
-    <hyperlink ref="E94" r:id="rId36"/>
-  </hyperlinks>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId37"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="440">
   <si>
     <t>Name</t>
   </si>
@@ -74,60 +74,18 @@
     <t>滑手機會被老闆罵</t>
   </si>
   <si>
-    <t>邊境法式</t>
-  </si>
-  <si>
-    <t>花蓮市中山路</t>
-  </si>
-  <si>
-    <t>好吃又好貴，很漂亮</t>
-  </si>
-  <si>
     <t>點心</t>
   </si>
   <si>
-    <t>http://i.imgur.com/ziwslCP.jpg</t>
-  </si>
-  <si>
     <t>NDHU</t>
   </si>
   <si>
-    <t>銅盤烤肉</t>
-  </si>
-  <si>
-    <t>花蓮市民國路</t>
-  </si>
-  <si>
-    <t>韓式烤肉吃很飽</t>
-  </si>
-  <si>
     <t>晚餐</t>
   </si>
   <si>
-    <t>http://i.imgur.com/UnabXHi.jpg</t>
-  </si>
-  <si>
-    <t>烤肉飯</t>
-  </si>
-  <si>
-    <t>花蓮縣壽豐鄉志學街</t>
-  </si>
-  <si>
-    <t>50元好吃又多料</t>
-  </si>
-  <si>
-    <t>午餐</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/GmmB5EA.jpg</t>
-  </si>
-  <si>
     <t>天香回味九層塔蛋</t>
   </si>
   <si>
-    <t>花蓮縣東華大學行雲莊</t>
-  </si>
-  <si>
     <t>濃濃的九層塔香，再加上一點醬油，好吃到極點!!</t>
   </si>
   <si>
@@ -146,91 +104,16 @@
     <t>NSYSU</t>
   </si>
   <si>
-    <t>幸福早一點點</t>
-  </si>
-  <si>
-    <t>花蓮市中正路247號一樓</t>
-  </si>
-  <si>
-    <t>一個每天為夢想為生活，努力工作~勇敢付出的您，一杯溫暖的咖啡，一口滿足的餐點，這就是您要的幸福~ 把自己喜愛吃的分享給您~期許您來幸福用餐，除了大飽口福，也能感受滿滿的幸福~</t>
-  </si>
-  <si>
-    <t>陽光早餐</t>
-  </si>
-  <si>
-    <t>花蓮市林森路</t>
-  </si>
-  <si>
-    <t>添加陽光味更好吃</t>
-  </si>
-  <si>
     <t>早餐</t>
   </si>
   <si>
-    <t>http://i.imgur.com/10P9xsR.jpg</t>
-  </si>
-  <si>
-    <t>婷婷牌家常麵</t>
-  </si>
-  <si>
-    <t>自己煮的最健康</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/tm4CE3p.jpg</t>
-  </si>
-  <si>
     <t>呼朋飲伴</t>
   </si>
   <si>
-    <t>花蓮縣壽豐鄉志學村</t>
-  </si>
-  <si>
-    <t>呼朋引伴來吃好吃早餐，蒜蓉醬超好吃超推</t>
-  </si>
-  <si>
     <t>http://i.imgur.com/JWoH2Xy.jpg</t>
   </si>
   <si>
-    <t>特製酸甜小黃瓜</t>
-  </si>
-  <si>
-    <t>酸酸甜甜最對味</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/2ZgWCUa.jpg</t>
-  </si>
-  <si>
-    <t>蜘蛛人泡麵</t>
-  </si>
-  <si>
-    <t>日本來的泡麵就是不一樣</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/vHo5XaF.jpg</t>
-  </si>
-  <si>
-    <t>全家便利商店</t>
-  </si>
-  <si>
-    <t>花蓮縣東華大學集賢館</t>
-  </si>
-  <si>
-    <t>全家就是你家</t>
-  </si>
-  <si>
     <t>消夜</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/2FkCO6N.jpg</t>
-  </si>
-  <si>
-    <t>滴蛋仔</t>
-  </si>
-  <si>
-    <t>好吃又好貴</t>
-  </si>
-  <si>
-    <t>http://i.imgur.com/wgWFOmo.jpg</t>
   </si>
   <si>
     <t>食上屋拉麵丼飯</t>
@@ -1367,6 +1250,129 @@
   <si>
     <t>http://mspxa.blob.core.windows.net/restaurant/NSYSU14.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天祥居</t>
+  </si>
+  <si>
+    <t>志學街</t>
+  </si>
+  <si>
+    <t>無敵豆干超無敵!想吃晚餐還是消夜,這裡通通都有~</t>
+  </si>
+  <si>
+    <t>晚餐/消夜</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/oNoGDM7.jpg</t>
+  </si>
+  <si>
+    <t>盛夏果實</t>
+  </si>
+  <si>
+    <t>喜歡吃西式早午餐的,這裡很適合唷~還有免費的珍奶喝到寶,珍珠限量唷^.&lt;</t>
+  </si>
+  <si>
+    <t>早餐/午餐</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/tkRJwx2.jpg</t>
+  </si>
+  <si>
+    <t>飯糰</t>
+  </si>
+  <si>
+    <t>好吃又便宜的飯糰YA~還沒吃過的趕快去嚐嚐!</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/gMQIVtt.jpg</t>
+  </si>
+  <si>
+    <t>志學街96巷</t>
+  </si>
+  <si>
+    <t>呼朋引伴來吃好吃早餐!!蒜蓉醬超好吃超推</t>
+  </si>
+  <si>
+    <t>東華一隻貓</t>
+  </si>
+  <si>
+    <t>消夜還能吃到烤的香香脆脆的吐司夾蛋夾燒肉，不吃嗎?!!不過還是有其他的可以吃啦XD</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/SbR51ER.jpg</t>
+  </si>
+  <si>
+    <t>優派脆皮雞排</t>
+  </si>
+  <si>
+    <t>離學校最近的一家雞排店~Always很多人!!店裡面有一隻很可愛的狗XD</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/zZLuDUT.jpg</t>
+  </si>
+  <si>
+    <t>陶園</t>
+  </si>
+  <si>
+    <t>招牌一直不換的陶園XD有好吃的特餐~仙草奶凍也很好吃~~~</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/tQNM25i.jpg</t>
+  </si>
+  <si>
+    <t>魚包蛋</t>
+  </si>
+  <si>
+    <t>超大碗的湯麵~可以吃很飽,魚包蛋也很好吃^^聽說是手工包的唷~</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/uy5H1wp.jpg</t>
+  </si>
+  <si>
+    <t>少爺丼飯</t>
+  </si>
+  <si>
+    <t>志光街</t>
+  </si>
+  <si>
+    <t>巷子裡的小小餐廳,丼飯很好吃~推推親子丼&gt; &lt;</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/rK1T8W9.jpg</t>
+  </si>
+  <si>
+    <t>東山鴨頭</t>
+  </si>
+  <si>
+    <t>志學唯一的東山鴨頭~好吃!好香!絕對要嘗試!!老闆跟老闆娘都很可愛~</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/0N0Qhgu.png</t>
+  </si>
+  <si>
+    <t>九湯屋</t>
+  </si>
+  <si>
+    <t>有日本的自動販賣機~是平價不錯的拉麵唷^^最近出了新口味可以去吃吃看XD</t>
+  </si>
+  <si>
+    <t>午餐/晚餐</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/fuN4LDa.jpg</t>
+  </si>
+  <si>
+    <t>三角</t>
+  </si>
+  <si>
+    <t>飯糰15元的無人販賣所XD聽說販賣機後面有老闆會隨時補貨,心情好還會跟你聊天唷(?</t>
+  </si>
+  <si>
+    <t>早餐/午餐/晚餐/消夜</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/8phZzjW.jpg</t>
   </si>
 </sst>
 </file>
@@ -1790,8 +1796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1827,767 +1833,767 @@
     </row>
     <row r="2" spans="1:6" ht="18.75">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18.75">
       <c r="A3" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18.75">
       <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="4">
+        <v>123</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="18.75">
-      <c r="A7" s="3" t="s">
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="18.75">
-      <c r="A8" s="3" t="s">
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="D11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="18.75">
-      <c r="A9" s="3" t="s">
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="C12" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="18.75">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="18.75">
-      <c r="A13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18.75">
-      <c r="A14" s="3" t="s">
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="D13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="18.75">
-      <c r="A15" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>74</v>
+      <c r="B15" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18.75">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18.75">
       <c r="A17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75">
+      <c r="A18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="4">
-        <v>123</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>100</v>
+        <v>123</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>102</v>
+        <v>125</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="2" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>13</v>
+        <v>132</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="2" t="s">
-        <v>109</v>
+        <v>134</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="2" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="2" t="s">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="18.75">
-      <c r="A28" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="18.75">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="18.75">
-      <c r="A30" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="3" t="s">
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="18.75">
-      <c r="A31" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="3" t="s">
+      <c r="E28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="18.75">
-      <c r="A32" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>123</v>
+      <c r="E29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>7</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>163</v>
+        <v>85</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>166</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>171</v>
+        <v>16</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>173</v>
+        <v>89</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>176</v>
+        <v>16</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>181</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>183</v>
+        <v>92</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>186</v>
+        <v>93</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>189</v>
@@ -2596,373 +2602,370 @@
         <v>190</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="D41" s="2" t="s">
-        <v>161</v>
+        <v>97</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>204</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="2" t="s">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C44" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="F44" s="2" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>157</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="2" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>125</v>
+        <v>223</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>220</v>
+        <v>104</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>221</v>
+        <v>105</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="2" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>222</v>
+        <v>108</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>225</v>
+        <v>113</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>132</v>
+        <v>230</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>133</v>
+        <v>232</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>229</v>
+        <v>113</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="2" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>231</v>
+        <v>113</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="2" t="s">
-        <v>137</v>
+        <v>238</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>138</v>
+        <v>241</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="2" t="s">
-        <v>139</v>
+        <v>243</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>246</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="2" t="s">
-        <v>141</v>
+        <v>247</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>252</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>253</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="C58" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2976,890 +2979,893 @@
         <v>261</v>
       </c>
       <c r="D59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>263</v>
-      </c>
       <c r="F59" s="2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>148</v>
+        <v>269</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="2" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>152</v>
+        <v>282</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>152</v>
+        <v>286</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>280</v>
+        <v>13</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>145</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>13</v>
+        <v>278</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="16.5">
       <c r="A68" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>288</v>
+        <v>298</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="16.5">
       <c r="A69" s="2" t="s">
-        <v>289</v>
+        <v>304</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="16.5">
       <c r="A70" s="2" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>296</v>
+        <v>310</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" ht="16.5">
       <c r="A71" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>301</v>
+      <c r="E71" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" ht="17.25" thickBot="1">
       <c r="A72" s="2" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>305</v>
+      <c r="E72" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="D73" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="2" t="s">
+    </row>
+    <row r="73" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A73" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B73" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C73" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D76" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="2" t="s">
+      <c r="D73" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F76" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" s="2" t="s">
+      <c r="F73" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B77" s="2" t="s">
+    </row>
+    <row r="74" spans="1:6" ht="38.25" thickBot="1">
+      <c r="A74" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="B74" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E77" s="2" t="s">
+      <c r="C74" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="F77" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="2" t="s">
+      <c r="D74" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="F74" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A75" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="B75" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="D78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E78" s="2" t="s">
+      <c r="C75" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="F78" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="2" t="s">
+      <c r="D75" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E75" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="F75" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A76" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="B76" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="D79" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="E79" s="2" t="s">
+      <c r="C76" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F79" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="16.5">
-      <c r="A80" s="2" t="s">
+      <c r="D76" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A77" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="D77" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A78" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="C80" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>337</v>
+      <c r="C78" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A79" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A80" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="16.5">
-      <c r="A81" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>342</v>
+        <v>351</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A81" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="16.5">
-      <c r="A82" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>349</v>
+        <v>355</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="19.5" thickBot="1">
+      <c r="A82" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>336</v>
+        <v>359</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="16.5">
       <c r="A83" s="2" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="17.25" thickBot="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="16.5">
       <c r="A84" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>13</v>
+        <v>363</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A85" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>359</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>7</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="16.5">
+      <c r="A85" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="38.25" thickBot="1">
-      <c r="A86" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="16.5">
+      <c r="A86" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="16.5">
+      <c r="A87" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="16.5">
+      <c r="A88" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="16.5">
+      <c r="A89" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="16.5">
+      <c r="A90" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="16.5">
+      <c r="A91" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B91" t="s">
+        <v>389</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A87" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="B87" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A88" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>374</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A89" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A90" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>380</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A91" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="E91" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A92" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E92" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A93" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="B93" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="19.5" thickBot="1">
-      <c r="A94" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="16.5">
+      <c r="F91" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2" t="s">
-        <v>399</v>
+        <v>27</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E95" s="7" t="s">
+      <c r="C96" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C101" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="16.5">
-      <c r="A96" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E96" s="7" t="s">
+      <c r="D101" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="16.5">
-      <c r="A97" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E97" s="7" t="s">
+      <c r="F101" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="16.5">
-      <c r="A98" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E98" s="7" t="s">
+      <c r="B102" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F98" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="16.5">
-      <c r="A99" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="E99" s="7" t="s">
+      <c r="D102" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="16.5">
-      <c r="A100" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="D100" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E100" s="7" t="s">
+      <c r="E102" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="F100" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="16.5">
-      <c r="A101" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="E101" s="7" t="s">
+      <c r="F102" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F101" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="16.5">
-      <c r="A102" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="E102" s="7" t="s">
+      <c r="B103" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="16.5">
-      <c r="A103" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="B103" t="s">
-        <v>428</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>429</v>
-      </c>
       <c r="D103" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E103" s="7" t="s">
-        <v>426</v>
+        <v>438</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>439</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="482">
   <si>
     <t>Name</t>
   </si>
@@ -1373,6 +1373,141 @@
   </si>
   <si>
     <t>http://i.imgur.com/8phZzjW.jpg</t>
+  </si>
+  <si>
+    <t>香香自助餐</t>
+  </si>
+  <si>
+    <t>台北市文山區
+指南路二段62號</t>
+  </si>
+  <si>
+    <t>香香自助餐雖然外表看起來不起眼，沒有什麼裝潢，地板更是國小教室的那種地板，但從每次吃飯時間的排隊人潮，便可看出他還蠻好吃的</t>
+  </si>
+  <si>
+    <t>自助餐</t>
+  </si>
+  <si>
+    <t>http://imgur.com/a/YuBbA</t>
+  </si>
+  <si>
+    <t>NCCU</t>
+  </si>
+  <si>
+    <t>飽飽食府</t>
+  </si>
+  <si>
+    <t>台北市文山區 
+指南路2段119巷7號</t>
+  </si>
+  <si>
+    <t>飽飽食府是政大附近我最喜歡吃的餐廳之一，原因除了他專賣麵食以外，他非常的好吃。麵條有Q勁~</t>
+  </si>
+  <si>
+    <t>正餐</t>
+  </si>
+  <si>
+    <t>http://imgur.com/a/ISYZb</t>
+  </si>
+  <si>
+    <t>永康街左撇子</t>
+  </si>
+  <si>
+    <t>台北市文山區 
+指南路2段119巷10號</t>
+  </si>
+  <si>
+    <t>每次只要經過左撇子，便可以看到穿著吊嘎的老闆，頭綁著頭巾，熟練的用左手拿著鍋鏟在炒各式各樣的炒飯與炒麵，而每到吃飯時間，也可以看到小小的走道上站滿了在排隊等候的人。</t>
+  </si>
+  <si>
+    <t>http://imgur.com/a/JVz9u</t>
+  </si>
+  <si>
+    <t>番茄紅</t>
+  </si>
+  <si>
+    <t>台北市文山區 
+指南路二段165號</t>
+  </si>
+  <si>
+    <t>既然餐廳名稱都叫番茄紅了，顧名思義，番茄的各式料理必定是他的主打，他的椒麻雞算是好吃的，雖然薄薄的一片，但我覺得量很足夠，而且重要的是，我很喜歡番茄紅特製的椒麻雞醬料，酸酸甜甜的，很下飯。</t>
+  </si>
+  <si>
+    <t>http://imgur.com/a/OCNeV</t>
+  </si>
+  <si>
+    <t>四五大街</t>
+  </si>
+  <si>
+    <t>台北市文山區 
+指南路二段45巷5號</t>
+  </si>
+  <si>
+    <t>五大街的菜色偏台式的家常菜，吃起來有媽媽煮的飯的感覺，而且一般的分量已經很多，如果食量比較大的人，還可以跟老闆要求要加飯，是免費的。</t>
+  </si>
+  <si>
+    <t>http://imgur.com/a/64AVy</t>
+  </si>
+  <si>
+    <t>四川飯館</t>
+  </si>
+  <si>
+    <t>台北市文山區 
+指南路二段65號2樓</t>
+  </si>
+  <si>
+    <t>四川飯館是一道一道的炒菜，所以人多一點才可以吃到比較多不同的菜色，而且一群同學擠在一起吃飯總是感到很溫暖。</t>
+  </si>
+  <si>
+    <t>http://imgur.com/a/N075I</t>
+  </si>
+  <si>
+    <t>My麵屋</t>
+  </si>
+  <si>
+    <t>台北市文山區 
+指南路二段45巷7號</t>
+  </si>
+  <si>
+    <t>My麵屋賣的是各式的麵類，所以我很喜歡去吃。My麵屋每到吃飯時間也總是大排長龍，外帶、內用都排了很多人</t>
+  </si>
+  <si>
+    <t>台灣菜</t>
+  </si>
+  <si>
+    <t>http://imgur.com/a/sE4gp</t>
+  </si>
+  <si>
+    <t>華越美食</t>
+  </si>
+  <si>
+    <t>台北市文山區 
+指南路2段205號</t>
+  </si>
+  <si>
+    <t>第一次看到朋友上傳一張他在華越吃飯的照片，是咖哩雞配法國麵包，我一看到就覺得這餐廳好特別，因為咖哩跟麵包對我來說是很少見的。餐點特別</t>
+  </si>
+  <si>
+    <t>越南菜</t>
+  </si>
+  <si>
+    <t>http://imgur.com/a/14JrS</t>
+  </si>
+  <si>
+    <t>提洛斯義式廚房</t>
+  </si>
+  <si>
+    <t>台北市文山區 
+指南路二段167號</t>
+  </si>
+  <si>
+    <t>提洛斯的裝潢有點地中海風情，還蠻特別的。提洛斯有提供無限供應的濃湯跟茶，濃湯還蠻好喝的。</t>
+  </si>
+  <si>
+    <t>義式料理</t>
+  </si>
+  <si>
+    <t>http://imgur.com/a/wVNfS</t>
   </si>
 </sst>
 </file>
@@ -1461,7 +1596,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1479,6 +1614,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1794,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD13"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3868,6 +4006,186 @@
         <v>17</v>
       </c>
     </row>
+    <row r="104" spans="1:6" ht="31.5">
+      <c r="A104" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="31.5">
+      <c r="A105" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="31.5">
+      <c r="A106" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="31.5">
+      <c r="A107" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>456</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="31.5">
+      <c r="A108" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>460</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="31.5">
+      <c r="A109" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>464</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="31.5">
+      <c r="A110" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>468</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="31.5">
+      <c r="A111" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="31.5">
+      <c r="A112" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/restaurant.xlsx
+++ b/restaurant.xlsx
@@ -1388,9 +1388,6 @@
     <t>自助餐</t>
   </si>
   <si>
-    <t>http://imgur.com/a/YuBbA</t>
-  </si>
-  <si>
     <t>NCCU</t>
   </si>
   <si>
@@ -1407,9 +1404,6 @@
     <t>正餐</t>
   </si>
   <si>
-    <t>http://imgur.com/a/ISYZb</t>
-  </si>
-  <si>
     <t>永康街左撇子</t>
   </si>
   <si>
@@ -1420,9 +1414,6 @@
     <t>每次只要經過左撇子，便可以看到穿著吊嘎的老闆，頭綁著頭巾，熟練的用左手拿著鍋鏟在炒各式各樣的炒飯與炒麵，而每到吃飯時間，也可以看到小小的走道上站滿了在排隊等候的人。</t>
   </si>
   <si>
-    <t>http://imgur.com/a/JVz9u</t>
-  </si>
-  <si>
     <t>番茄紅</t>
   </si>
   <si>
@@ -1433,9 +1424,6 @@
     <t>既然餐廳名稱都叫番茄紅了，顧名思義，番茄的各式料理必定是他的主打，他的椒麻雞算是好吃的，雖然薄薄的一片，但我覺得量很足夠，而且重要的是，我很喜歡番茄紅特製的椒麻雞醬料，酸酸甜甜的，很下飯。</t>
   </si>
   <si>
-    <t>http://imgur.com/a/OCNeV</t>
-  </si>
-  <si>
     <t>四五大街</t>
   </si>
   <si>
@@ -1446,9 +1434,6 @@
     <t>五大街的菜色偏台式的家常菜，吃起來有媽媽煮的飯的感覺，而且一般的分量已經很多，如果食量比較大的人，還可以跟老闆要求要加飯，是免費的。</t>
   </si>
   <si>
-    <t>http://imgur.com/a/64AVy</t>
-  </si>
-  <si>
     <t>四川飯館</t>
   </si>
   <si>
@@ -1459,9 +1444,6 @@
     <t>四川飯館是一道一道的炒菜，所以人多一點才可以吃到比較多不同的菜色，而且一群同學擠在一起吃飯總是感到很溫暖。</t>
   </si>
   <si>
-    <t>http://imgur.com/a/N075I</t>
-  </si>
-  <si>
     <t>My麵屋</t>
   </si>
   <si>
@@ -1475,9 +1457,6 @@
     <t>台灣菜</t>
   </si>
   <si>
-    <t>http://imgur.com/a/sE4gp</t>
-  </si>
-  <si>
     <t>華越美食</t>
   </si>
   <si>
@@ -1491,9 +1470,6 @@
     <t>越南菜</t>
   </si>
   <si>
-    <t>http://imgur.com/a/14JrS</t>
-  </si>
-  <si>
     <t>提洛斯義式廚房</t>
   </si>
   <si>
@@ -1507,7 +1483,31 @@
     <t>義式料理</t>
   </si>
   <si>
-    <t>http://imgur.com/a/wVNfS</t>
+    <t>http://i.imgur.com/xaLbfSQ.png</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/swqCpk6.png</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/PQr2rCa.png</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/XisDuLQ.jpg</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/GwGrF9Y.png</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/LQEVSmh.png</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/w7CfKEh.png</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/uI0UurJ.png</t>
+  </si>
+  <si>
+    <t>http://i.imgur.com/IMwcgIc.png</t>
   </si>
 </sst>
 </file>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4020,170 +4020,170 @@
         <v>443</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>444</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="31.5">
       <c r="A105" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B105" s="8" t="s">
+      <c r="C105" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="D105" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="D105" s="2" t="s">
-        <v>449</v>
-      </c>
       <c r="E105" s="2" t="s">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="31.5">
       <c r="A106" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C106" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>453</v>
-      </c>
       <c r="D106" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="31.5">
       <c r="A107" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="31.5">
       <c r="A108" s="2" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>462</v>
+        <v>477</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="31.5">
       <c r="A109" s="2" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="31.5">
       <c r="A110" s="2" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="31.5">
       <c r="A111" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="31.5">
       <c r="A112" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>481</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
   </sheetData>
